--- a/data/output/results/betting_analysis_20220315.xlsx
+++ b/data/output/results/betting_analysis_20220315.xlsx
@@ -512,7 +512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD20"/>
+  <dimension ref="A1:AF20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,60 +613,70 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>date_run</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>EV_pl1</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>EV_pl2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Std_Dev_pl1</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Std_Dev_pl2</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Sharpe_Ratio_pl1</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Sharpe_Ratio_pl2</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Best_Bet_EV</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Best_Bet</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Best_Bet_Sharpe</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Money_to_Bet</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Prob_Win</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Payout</t>
         </is>
@@ -680,12 +690,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Guinard M.</t>
+          <t>Mena F.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>ARG</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -694,16 +704,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.31</v>
+        <v>1.62</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Milojevic N.</t>
+          <t>Casanova H.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>SRB</t>
+          <t>ARG</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -712,72 +722,83 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>1.57</v>
+        <v>2.21</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>-118</v>
+        <v>215</v>
       </c>
       <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
         <v>5</v>
-      </c>
-      <c r="N2" t="n">
-        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5512613369550573</v>
+        <v>0.5369185058406208</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4487386630449426</v>
+        <v>0.4630814941593792</v>
       </c>
       <c r="R2" t="n">
         <v>0.7368421052631579</v>
       </c>
-      <c r="S2" t="n">
-        <v>0.8246750253212397</v>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>2022-03-15</t>
+        </is>
       </c>
       <c r="T2" t="n">
-        <v>0.1532583640255025</v>
+        <v>0.4067264853024266</v>
       </c>
       <c r="U2" t="n">
-        <v>1.148913921234971</v>
+        <v>0.4864915962516074</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7808635741726858</v>
+        <v>0.8077889610490455</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.1613044904874631</v>
+        <v>1.101983706122463</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.097171982804043</v>
+        <v>-0.7468206967251997</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.8246750253212397</v>
-      </c>
-      <c r="Z2" t="inlineStr">
+        <v>-0.4750600220673456</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.4067264853024266</v>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Mena F.
+Casanova H.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>pl1</t>
         </is>
       </c>
-      <c r="AA2" t="n">
-        <v>-0.1613044904874631</v>
-      </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
+        <v>-0.7468206967251997</v>
+      </c>
+      <c r="AD2" t="n">
         <v>1</v>
       </c>
-      <c r="AC2" t="n">
-        <v>0.5512613369550573</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>2.31</v>
+      <c r="AE2" t="n">
+        <v>0.5369185058406208</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1.62</v>
       </c>
     </row>
     <row r="3">
@@ -788,12 +809,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kyrgios N.</t>
+          <t>Sinner J.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -802,16 +823,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1.23</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ruud C.</t>
+          <t>Bonzi B.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -820,72 +841,83 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1.81</v>
+        <v>4.19</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2586</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>3</v>
       </c>
-      <c r="L3" t="n">
-        <v>-3422</v>
-      </c>
-      <c r="M3" t="n">
-        <v>8</v>
-      </c>
-      <c r="N3" t="n">
-        <v>10</v>
-      </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1703401172561881</v>
+        <v>0.6986757319415848</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8296598827438119</v>
+        <v>0.3013242680584153</v>
       </c>
       <c r="R3" t="n">
         <v>0.7368421052631579</v>
       </c>
-      <c r="S3" t="n">
-        <v>-0.4889796482314356</v>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>2022-03-15</t>
+        </is>
       </c>
       <c r="T3" t="n">
-        <v>1.331344270510111</v>
+        <v>0.5580468822297342</v>
       </c>
       <c r="U3" t="n">
-        <v>0.7518626515776301</v>
+        <v>0.5638729512231754</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6804356996777553</v>
+        <v>0.5643649004915585</v>
       </c>
       <c r="W3" t="n">
-        <v>-1.993688135839881</v>
+        <v>1.922511327690757</v>
       </c>
       <c r="X3" t="n">
-        <v>0.4722625086577547</v>
+        <v>-0.8008171971301143</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.331344270510111</v>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>pl2</t>
-        </is>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.4722625086577547</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>8.163848798412388</v>
+        <v>-0.23205431476583</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.5580468822297342</v>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Sinner J.
+Bonzi B.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>pl1</t>
+        </is>
       </c>
       <c r="AC3" t="n">
-        <v>0.8296598827438119</v>
+        <v>-0.8008171971301143</v>
       </c>
       <c r="AD3" t="n">
-        <v>1.81</v>
+        <v>1</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.6986757319415848</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1.23</v>
       </c>
     </row>
     <row r="4">
@@ -896,7 +928,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Giannessi A.</t>
+          <t>Pellegrino A.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -906,20 +938,20 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Left-Handed</t>
+          <t>Right-Handed</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1.48</v>
+        <v>3.15</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Alvarez Varona N.</t>
+          <t>Mager G.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -928,19 +960,19 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2.55</v>
+        <v>1.33</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>9</v>
+        <v>-2</v>
       </c>
       <c r="L4" t="n">
-        <v>235</v>
+        <v>-790</v>
       </c>
       <c r="M4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
         <v>-3</v>
@@ -949,67 +981,78 @@
         <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4309184169922693</v>
+        <v>0.4276809605414212</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5690815830077306</v>
+        <v>0.5723190394585789</v>
       </c>
       <c r="R4" t="n">
         <v>0.7368421052631579</v>
       </c>
-      <c r="S4" t="n">
-        <v>0.06867767414082793</v>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>2022-03-15</t>
+        </is>
       </c>
       <c r="T4" t="n">
-        <v>1.020239619677444</v>
+        <v>0.7748759862468979</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7329030157539165</v>
+        <v>0.3335033619384888</v>
       </c>
       <c r="V4" t="n">
-        <v>1.262772087954383</v>
+        <v>1.558438286775152</v>
       </c>
       <c r="W4" t="n">
-        <v>-1.284375020466877</v>
+        <v>0.6580072766383976</v>
       </c>
       <c r="X4" t="n">
-        <v>0.008108842264664937</v>
+        <v>-0.1508715588858125</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.020239619677444</v>
-      </c>
-      <c r="Z4" t="inlineStr">
+        <v>-1.028099022730526</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.3335033619384888</v>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>Pellegrino A.
+Mager G.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>pl2</t>
         </is>
       </c>
-      <c r="AA4" t="n">
-        <v>0.008108842264664937</v>
-      </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
+        <v>-1.028099022730526</v>
+      </c>
+      <c r="AD4" t="n">
         <v>1</v>
       </c>
-      <c r="AC4" t="n">
-        <v>0.5690815830077306</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2.55</v>
+      <c r="AE4" t="n">
+        <v>0.5723190394585789</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>clay</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rinderknech A.</t>
+          <t>Serdarusic N.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>HRV</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1018,106 +1061,117 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.39</v>
+        <v>3.1</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cerundolo F.</t>
+          <t>Vesely J.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>ARG</t>
+          <t>CZE</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Right-Handed</t>
+          <t>Left-Handed</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>2.92</v>
+        <v>1.34</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="L5" t="n">
-        <v>288</v>
+        <v>-306</v>
       </c>
       <c r="M5" t="n">
-        <v>8</v>
+        <v>-9</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>-7</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5750894075909926</v>
+        <v>0.4187005729118458</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.4249105924090075</v>
+        <v>0.5812994270881543</v>
       </c>
       <c r="R5" t="n">
         <v>0.7368421052631579</v>
       </c>
-      <c r="S5" t="n">
-        <v>0.3744636841424722</v>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>2022-03-15</t>
+        </is>
       </c>
       <c r="T5" t="n">
-        <v>0.6656495222433092</v>
+        <v>0.7166723489385678</v>
       </c>
       <c r="U5" t="n">
-        <v>0.6871179013781806</v>
+        <v>0.3602406593862811</v>
       </c>
       <c r="V5" t="n">
-        <v>1.443441922319631</v>
+        <v>1.529373000389662</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.9249305171394989</v>
+        <v>0.6610838130716601</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.2385620594996401</v>
+        <v>-0.1917960177057504</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.6656495222433092</v>
-      </c>
-      <c r="Z5" t="inlineStr">
+        <v>-0.982869838537835</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.3602406593862811</v>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>Serdarusic N.
+Vesely J.</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>pl2</t>
         </is>
       </c>
-      <c r="AA5" t="n">
-        <v>-0.2385620594996401</v>
-      </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
+        <v>-0.982869838537835</v>
+      </c>
+      <c r="AD5" t="n">
         <v>1</v>
       </c>
-      <c r="AC5" t="n">
-        <v>0.4249105924090075</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>2.92</v>
+      <c r="AE5" t="n">
+        <v>0.5812994270881543</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>clay</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kecmanovic M.</t>
+          <t>Guinard M.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SRB</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1130,12 +1184,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Van De Zandschulp B.</t>
+          <t>Milojevic N.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1144,7 +1198,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1153,79 +1207,90 @@
         <v>-2</v>
       </c>
       <c r="L6" t="n">
-        <v>-175</v>
+        <v>-118</v>
       </c>
       <c r="M6" t="n">
-        <v>-8</v>
+        <v>5</v>
       </c>
       <c r="N6" t="n">
-        <v>-5</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5260010714611113</v>
+        <v>0.5512613369550573</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4739989285388888</v>
+        <v>0.4487386630449426</v>
       </c>
       <c r="R6" t="n">
         <v>0.7368421052631579</v>
       </c>
-      <c r="S6" t="n">
-        <v>0.7410635465362784</v>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>2022-03-15</t>
+        </is>
       </c>
       <c r="T6" t="n">
-        <v>0.2418771927718887</v>
+        <v>0.8246750253212397</v>
       </c>
       <c r="U6" t="n">
-        <v>1.1534372540749</v>
+        <v>0.1532583640255025</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8089040483122674</v>
+        <v>1.148913921234971</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.2331608871775334</v>
+        <v>0.7808635741726857</v>
       </c>
       <c r="X6" t="n">
-        <v>-0.9495845753655903</v>
+        <v>-0.1613044904874631</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.7410635465362784</v>
-      </c>
-      <c r="Z6" t="inlineStr">
+        <v>-1.097171982804043</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.8246750253212397</v>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Guinard M.
+Milojevic N.</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>pl1</t>
         </is>
       </c>
-      <c r="AA6" t="n">
-        <v>-0.2331608871775334</v>
-      </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
+        <v>-0.1613044904874631</v>
+      </c>
+      <c r="AD6" t="n">
         <v>1</v>
       </c>
-      <c r="AC6" t="n">
-        <v>0.5260010714611113</v>
-      </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
+        <v>0.5512613369550573</v>
+      </c>
+      <c r="AF6" t="n">
         <v>2.31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>clay</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Olivo R.</t>
+          <t>Kukushkin M.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ARG</t>
+          <t>KAZ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1234,16 +1299,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2.73</v>
+        <v>1.48</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>De Jong J.</t>
+          <t>Fabbiano T.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -1252,88 +1317,99 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>1.43</v>
+        <v>2.49</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>50</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
         <v>10</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5486304511054322</v>
+        <v>0.5125789225279873</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4513695488945678</v>
+        <v>0.4874210774720127</v>
       </c>
       <c r="R7" t="n">
         <v>0.7368421052631579</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.046391582623262</v>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>2022-03-15</t>
+        </is>
       </c>
       <c r="T7" t="n">
-        <v>0.09682800381379975</v>
+        <v>0.2711957278694085</v>
       </c>
       <c r="U7" t="n">
-        <v>1.358528425156465</v>
+        <v>0.7010995603773245</v>
       </c>
       <c r="V7" t="n">
-        <v>0.7116101274629103</v>
+        <v>0.7397657835821279</v>
       </c>
       <c r="W7" t="n">
-        <v>0.02678750179192652</v>
+        <v>1.244605946702364</v>
       </c>
       <c r="X7" t="n">
-        <v>-1.283247611219242</v>
+        <v>-0.998700248818105</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.046391582623262</v>
-      </c>
-      <c r="Z7" t="inlineStr">
+        <v>-0.2481913576269826</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.2711957278694085</v>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Kukushkin M.
+Fabbiano T.</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>pl1</t>
         </is>
       </c>
-      <c r="AA7" t="n">
-        <v>0.02678750179192652</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
+        <v>-0.998700248818105</v>
+      </c>
+      <c r="AD7" t="n">
         <v>1</v>
       </c>
-      <c r="AC7" t="n">
-        <v>0.5486304511054322</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>2.73</v>
+      <c r="AE7" t="n">
+        <v>0.5125789225279873</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1.48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>clay</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mena F.</t>
+          <t>Simon G.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ARG</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1342,16 +1418,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.62</v>
+        <v>3.37</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Casanova H.</t>
+          <t>Machac T.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>ARG</t>
+          <t>CZE</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -1360,88 +1436,99 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>2.21</v>
+        <v>1.29</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="L8" t="n">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.5369185058406208</v>
+        <v>0.5077745472691092</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.4630814941593792</v>
+        <v>0.4922254527308909</v>
       </c>
       <c r="R8" t="n">
         <v>0.7368421052631579</v>
       </c>
-      <c r="S8" t="n">
-        <v>0.4067264853024266</v>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>2022-03-15</t>
+        </is>
       </c>
       <c r="T8" t="n">
-        <v>0.4864915962516074</v>
+        <v>1.218974771566007</v>
       </c>
       <c r="U8" t="n">
-        <v>0.8077889610490455</v>
+        <v>0.1271962867537402</v>
       </c>
       <c r="V8" t="n">
-        <v>1.101983706122463</v>
+        <v>1.684796292804205</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.7468206967251997</v>
+        <v>0.6449220230615503</v>
       </c>
       <c r="X8" t="n">
-        <v>-0.4750600220673456</v>
+        <v>0.1240356311671282</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.4864915962516074</v>
-      </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>pl2</t>
-        </is>
-      </c>
-      <c r="AA8" t="n">
-        <v>-0.4750600220673456</v>
-      </c>
-      <c r="AB8" t="n">
+        <v>-1.368853414332862</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1.218974771566007</v>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>Simon G.
+Machac T.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>pl1</t>
+        </is>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.1240356311671282</v>
+      </c>
+      <c r="AD8" t="n">
         <v>1</v>
       </c>
-      <c r="AC8" t="n">
-        <v>0.4630814941593792</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>2.21</v>
+      <c r="AE8" t="n">
+        <v>0.5077745472691092</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>3.37</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>clay</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Jarry N.</t>
+          <t>Kyrgios N.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CHL</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1450,16 +1537,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.16</v>
+        <v>2</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Villanueva G.</t>
+          <t>Ruud C.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>ARG</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -1468,72 +1555,83 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>4.79</v>
+        <v>1.81</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>303</v>
+        <v>-3422</v>
       </c>
       <c r="M9" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="N9" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>0.5362852227838378</v>
+        <v>0.1703401172561881</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.4637147772161622</v>
+        <v>0.8296598827438119</v>
       </c>
       <c r="R9" t="n">
         <v>0.7368421052631579</v>
       </c>
-      <c r="S9" t="n">
-        <v>0.1583760812130897</v>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>2022-03-15</t>
+        </is>
       </c>
       <c r="T9" t="n">
-        <v>1.684908560081579</v>
+        <v>-0.4889796482314356</v>
       </c>
       <c r="U9" t="n">
-        <v>0.5784707076738532</v>
+        <v>1.331344270510111</v>
       </c>
       <c r="V9" t="n">
-        <v>2.388685077377377</v>
+        <v>0.7518626515776301</v>
       </c>
       <c r="W9" t="n">
-        <v>-1.472198864159364</v>
+        <v>0.6804356996777553</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2825439680071118</v>
+        <v>-1.993688135839881</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.684908560081579</v>
-      </c>
-      <c r="Z9" t="inlineStr">
+        <v>0.4722625086577547</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1.331344270510111</v>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Kyrgios N.
+Ruud C.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>pl2</t>
         </is>
       </c>
-      <c r="AA9" t="n">
-        <v>0.2825439680071118</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>10.33191716698966</v>
-      </c>
       <c r="AC9" t="n">
-        <v>0.4637147772161622</v>
+        <v>0.4722625086577547</v>
       </c>
       <c r="AD9" t="n">
-        <v>4.79</v>
+        <v>0.6857815455902623</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.8296598827438119</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>1.81</v>
       </c>
     </row>
     <row r="10">
@@ -1544,12 +1642,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Gimeno Valero C.</t>
+          <t>Jarry N.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>CHL</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1558,16 +1656,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1.6</v>
+        <v>1.16</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Coppejans K.</t>
+          <t>Villanueva G.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>ARG</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -1576,72 +1674,83 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>2.25</v>
+        <v>4.79</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="L10" t="n">
-        <v>-254</v>
+        <v>303</v>
       </c>
       <c r="M10" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.5252398760589666</v>
+        <v>0.5362852227838378</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.4747601239410333</v>
+        <v>0.4637147772161622</v>
       </c>
       <c r="R10" t="n">
         <v>0.7368421052631579</v>
       </c>
-      <c r="S10" t="n">
-        <v>0.3656236777533132</v>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>2022-03-15</t>
+        </is>
       </c>
       <c r="T10" t="n">
-        <v>0.5429704028083584</v>
+        <v>0.1583760812130897</v>
       </c>
       <c r="U10" t="n">
-        <v>0.7989800676867426</v>
+        <v>1.684908560081579</v>
       </c>
       <c r="V10" t="n">
-        <v>1.123565720184482</v>
+        <v>0.5784707076738532</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.8064986203126766</v>
+        <v>2.388685077377377</v>
       </c>
       <c r="X10" t="n">
-        <v>-0.4156673604415045</v>
+        <v>-1.472198864159364</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.5429704028083584</v>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>pl2</t>
-        </is>
-      </c>
-      <c r="AA10" t="n">
-        <v>-0.4156673604415045</v>
-      </c>
-      <c r="AB10" t="n">
+        <v>0.2825439680071118</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.1583760812130897</v>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Jarry N.
+Villanueva G.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>pl1</t>
+        </is>
+      </c>
+      <c r="AC10" t="n">
+        <v>-1.472198864159364</v>
+      </c>
+      <c r="AD10" t="n">
         <v>1</v>
       </c>
-      <c r="AC10" t="n">
-        <v>0.4747601239410333</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>2.25</v>
+      <c r="AE10" t="n">
+        <v>0.5362852227838378</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>1.16</v>
       </c>
     </row>
     <row r="11">
@@ -1652,12 +1761,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Collarini A.</t>
+          <t>Giannessi A.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ARG</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1666,16 +1775,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.14</v>
+        <v>1.48</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kicker N.</t>
+          <t>Alvarez Varona N.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>ARG</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1684,72 +1793,83 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1.32</v>
+        <v>2.55</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>9</v>
+      </c>
+      <c r="L11" t="n">
+        <v>235</v>
+      </c>
+      <c r="M11" t="n">
         <v>2</v>
       </c>
-      <c r="L11" t="n">
-        <v>42</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5042864263745586</v>
+        <v>0.4309184169922693</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.4957135736254416</v>
+        <v>0.5690815830077306</v>
       </c>
       <c r="R11" t="n">
         <v>0.7368421052631579</v>
       </c>
-      <c r="S11" t="n">
-        <v>1.087745805190673</v>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>2022-03-15</t>
+        </is>
       </c>
       <c r="T11" t="n">
-        <v>0.1500554908110244</v>
+        <v>0.06867767414082782</v>
       </c>
       <c r="U11" t="n">
-        <v>1.569942306303606</v>
+        <v>1.020239619677444</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6599757465989681</v>
+        <v>0.7329030157539164</v>
       </c>
       <c r="W11" t="n">
-        <v>0.04952144093353551</v>
+        <v>1.262772087954383</v>
       </c>
       <c r="X11" t="n">
-        <v>-1.302994107920632</v>
+        <v>-1.284375020466877</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.087745805190673</v>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>pl1</t>
-        </is>
-      </c>
-      <c r="AA11" t="n">
-        <v>0.04952144093353551</v>
-      </c>
-      <c r="AB11" t="n">
+        <v>0.008108842264664937</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>1.020239619677444</v>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>Giannessi A.
+Alvarez Varona N.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>pl2</t>
+        </is>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.008108842264664937</v>
+      </c>
+      <c r="AD11" t="n">
         <v>1</v>
       </c>
-      <c r="AC11" t="n">
-        <v>0.5042864263745586</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>3.14</v>
+      <c r="AE11" t="n">
+        <v>0.5690815830077306</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>2.55</v>
       </c>
     </row>
     <row r="12">
@@ -1760,12 +1880,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Taberner C.</t>
+          <t>Piros Z.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>HUN</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1774,106 +1894,117 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Zeppieri G.</t>
+          <t>Martin A.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>SVK</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Left-Handed</t>
+          <t>Right-Handed</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>3.48</v>
+        <v>2.83</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>-10</v>
       </c>
       <c r="L12" t="n">
-        <v>463</v>
+        <v>-543</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="N12" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.6144228918937926</v>
+        <v>0.5803146580379446</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.3855771081062074</v>
+        <v>0.4196853419620555</v>
       </c>
       <c r="R12" t="n">
         <v>0.7368421052631579</v>
       </c>
-      <c r="S12" t="n">
-        <v>0.4008841935178472</v>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>2022-03-15</t>
+        </is>
       </c>
       <c r="T12" t="n">
-        <v>0.7273854443158092</v>
+        <v>0.3869520327106875</v>
       </c>
       <c r="U12" t="n">
-        <v>0.6230161210808174</v>
+        <v>0.6073948597146726</v>
       </c>
       <c r="V12" t="n">
-        <v>1.693825079188472</v>
+        <v>0.6859752886046097</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.9776886758972623</v>
+        <v>1.396625947302911</v>
       </c>
       <c r="X12" t="n">
-        <v>-0.166849906260447</v>
+        <v>-0.9082659064245565</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.7273854443158092</v>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>pl2</t>
-        </is>
-      </c>
-      <c r="AA12" t="n">
-        <v>-0.166849906260447</v>
-      </c>
-      <c r="AB12" t="n">
+        <v>-0.2882698413722135</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.3869520327106875</v>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>Piros Z.
+Martin A.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>pl1</t>
+        </is>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.9082659064245565</v>
+      </c>
+      <c r="AD12" t="n">
         <v>1</v>
       </c>
-      <c r="AC12" t="n">
-        <v>0.3855771081062074</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>3.48</v>
+      <c r="AE12" t="n">
+        <v>0.5803146580379446</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>1.39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>clay</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Kukushkin M.</t>
+          <t>Gimeno Valero C.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>KAZ</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1882,16 +2013,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Fabbiano T.</t>
+          <t>Coppejans K.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1900,72 +2031,83 @@
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2.49</v>
+        <v>2.25</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="L13" t="n">
-        <v>50</v>
+        <v>-254</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5125789225279873</v>
+        <v>0.5252398760589666</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.4874210774720127</v>
+        <v>0.4747601239410333</v>
       </c>
       <c r="R13" t="n">
         <v>0.7368421052631579</v>
       </c>
-      <c r="S13" t="n">
-        <v>0.2711957278694085</v>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>2022-03-15</t>
+        </is>
       </c>
       <c r="T13" t="n">
-        <v>0.7010995603773245</v>
+        <v>0.3656236777533132</v>
       </c>
       <c r="U13" t="n">
-        <v>0.7397657835821279</v>
+        <v>0.5429704028083582</v>
       </c>
       <c r="V13" t="n">
-        <v>1.244605946702364</v>
+        <v>0.7989800676867426</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.998700248818105</v>
+        <v>1.123565720184482</v>
       </c>
       <c r="X13" t="n">
-        <v>-0.2481913576269825</v>
+        <v>-0.8064986203126766</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.7010995603773245</v>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>pl2</t>
-        </is>
-      </c>
-      <c r="AA13" t="n">
-        <v>-0.2481913576269825</v>
-      </c>
-      <c r="AB13" t="n">
+        <v>-0.4156673604415048</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.3656236777533132</v>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>Gimeno Valero C.
+Coppejans K.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>pl1</t>
+        </is>
+      </c>
+      <c r="AC13" t="n">
+        <v>-0.8064986203126766</v>
+      </c>
+      <c r="AD13" t="n">
         <v>1</v>
       </c>
-      <c r="AC13" t="n">
-        <v>0.4874210774720127</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>2.49</v>
+      <c r="AE13" t="n">
+        <v>0.5252398760589666</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="14">
@@ -1976,104 +2118,115 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Piros Z.</t>
+          <t>Collarini A.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>HUN</t>
+          <t>ARG</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Left-Handed</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kicker N.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ARG</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>Right-Handed</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Martin A.</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>SVK</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Right-Handed</t>
-        </is>
-      </c>
       <c r="I14" t="n">
-        <v>2.83</v>
+        <v>1.32</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>-10</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>-543</v>
+        <v>42</v>
       </c>
       <c r="M14" t="n">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="N14" t="n">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0.5803146580379446</v>
+        <v>0.5042864263745586</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.4196853419620555</v>
+        <v>0.4957135736254416</v>
       </c>
       <c r="R14" t="n">
         <v>0.7368421052631579</v>
       </c>
-      <c r="S14" t="n">
-        <v>0.3869520327106875</v>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>2022-03-15</t>
+        </is>
       </c>
       <c r="T14" t="n">
-        <v>0.6073948597146726</v>
+        <v>1.087745805190673</v>
       </c>
       <c r="U14" t="n">
-        <v>0.6859752886046097</v>
+        <v>0.1500554908110246</v>
       </c>
       <c r="V14" t="n">
-        <v>1.396625947302911</v>
+        <v>1.569942306303606</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.9082659064245565</v>
+        <v>0.659975746598968</v>
       </c>
       <c r="X14" t="n">
-        <v>-0.2882698413722135</v>
+        <v>0.04952144093353551</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.6073948597146726</v>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>pl2</t>
-        </is>
-      </c>
-      <c r="AA14" t="n">
-        <v>-0.2882698413722135</v>
-      </c>
-      <c r="AB14" t="n">
+        <v>-1.302994107920632</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1.087745805190673</v>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>Collarini A.
+Kicker N.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>pl1</t>
+        </is>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.04952144093353551</v>
+      </c>
+      <c r="AD14" t="n">
         <v>1</v>
       </c>
-      <c r="AC14" t="n">
-        <v>0.4196853419620555</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>2.83</v>
+      <c r="AE14" t="n">
+        <v>0.5042864263745586</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>3.14</v>
       </c>
     </row>
     <row r="15">
@@ -2084,120 +2237,131 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Agamenone F.</t>
+          <t>Taberner C.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>ESP</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Right-Handed</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Zeppieri G.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>ITA</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Right-Handed</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Giustino L.</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>ITA</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Right-Handed</t>
+          <t>Left-Handed</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>3.07</v>
+        <v>3.48</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>463</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>-2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>-36</v>
-      </c>
-      <c r="M15" t="n">
-        <v>-1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>8</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.5232100045330382</v>
+        <v>0.6144228918937926</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.4767899954669618</v>
+        <v>0.3855771081062074</v>
       </c>
       <c r="R15" t="n">
         <v>0.7368421052631579</v>
       </c>
-      <c r="S15" t="n">
-        <v>0.2243114106073095</v>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>2022-03-15</t>
+        </is>
       </c>
       <c r="T15" t="n">
-        <v>0.9405352815505342</v>
+        <v>0.4008841935178472</v>
       </c>
       <c r="U15" t="n">
-        <v>0.6692777469333665</v>
+        <v>0.727385444315809</v>
       </c>
       <c r="V15" t="n">
-        <v>1.533345285884653</v>
+        <v>0.6230161210808174</v>
       </c>
       <c r="W15" t="n">
-        <v>-1.173935026217021</v>
+        <v>1.693825079188472</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.04530272410847672</v>
+        <v>-0.9776886758972623</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.9405352815505342</v>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>pl2</t>
-        </is>
-      </c>
-      <c r="AA15" t="n">
-        <v>-0.04530272410847672</v>
-      </c>
-      <c r="AB15" t="n">
+        <v>-0.1668499062604471</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.4008841935178472</v>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>Taberner C.
+Zeppieri G.</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>pl1</t>
+        </is>
+      </c>
+      <c r="AC15" t="n">
+        <v>-0.9776886758972623</v>
+      </c>
+      <c r="AD15" t="n">
         <v>1</v>
       </c>
-      <c r="AC15" t="n">
-        <v>0.4767899954669618</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>3.07</v>
+      <c r="AE15" t="n">
+        <v>0.6144228918937926</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>hard</t>
+          <t>clay</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sinner J.</t>
+          <t>Olivo R.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>ARG</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2206,16 +2370,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1.23</v>
+        <v>2.73</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bonzi B.</t>
+          <t>De Jong J.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -2224,72 +2388,83 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>4.19</v>
+        <v>1.43</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-2</v>
+        <v>10</v>
       </c>
       <c r="L16" t="n">
-        <v>2586</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
         <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.6986757319415848</v>
+        <v>0.5486304511054322</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.3013242680584153</v>
+        <v>0.4513695488945678</v>
       </c>
       <c r="R16" t="n">
         <v>0.7368421052631579</v>
       </c>
-      <c r="S16" t="n">
-        <v>0.5580468822297342</v>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>2022-03-15</t>
+        </is>
       </c>
       <c r="T16" t="n">
-        <v>0.5638729512231754</v>
+        <v>1.046391582623262</v>
       </c>
       <c r="U16" t="n">
-        <v>0.5643649004915585</v>
+        <v>0.09682800381379975</v>
       </c>
       <c r="V16" t="n">
-        <v>1.922511327690757</v>
+        <v>1.358528425156465</v>
       </c>
       <c r="W16" t="n">
-        <v>-0.8008171971301143</v>
+        <v>0.7116101274629103</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.23205431476583</v>
+        <v>0.02678750179192652</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.5638729512231754</v>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>pl2</t>
-        </is>
-      </c>
-      <c r="AA16" t="n">
-        <v>-0.23205431476583</v>
-      </c>
-      <c r="AB16" t="n">
+        <v>-1.283247611219242</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1.046391582623262</v>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>Olivo R.
+De Jong J.</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>pl1</t>
+        </is>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.02678750179192652</v>
+      </c>
+      <c r="AD16" t="n">
         <v>1</v>
       </c>
-      <c r="AC16" t="n">
-        <v>0.3013242680584153</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>4.19</v>
+      <c r="AE16" t="n">
+        <v>0.5486304511054322</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>2.73</v>
       </c>
     </row>
     <row r="17">
@@ -2300,12 +2475,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Serdarusic N.</t>
+          <t>Furness E.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>HRV</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2314,11 +2489,11 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>3.1</v>
+        <v>2.34</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vesely J.</t>
+          <t>Kopriva V.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2328,76 +2503,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Left-Handed</t>
+          <t>Right-Handed</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>-306</v>
+        <v>-93</v>
       </c>
       <c r="M17" t="n">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="N17" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="O17" t="n">
         <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0.4187005729118458</v>
+        <v>0.4866798002083757</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.5812994270881543</v>
+        <v>0.5133201997916244</v>
       </c>
       <c r="R17" t="n">
         <v>0.7368421052631579</v>
       </c>
-      <c r="S17" t="n">
-        <v>0.7166723489385678</v>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>2022-03-15</t>
+        </is>
       </c>
       <c r="T17" t="n">
-        <v>0.3602406593862811</v>
+        <v>0.6255105326959747</v>
       </c>
       <c r="U17" t="n">
-        <v>1.529373000389662</v>
+        <v>0.3089665094686421</v>
       </c>
       <c r="V17" t="n">
-        <v>0.6610838130716601</v>
+        <v>1.169584745438628</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.1917960177057504</v>
+        <v>0.7747249382178947</v>
       </c>
       <c r="X17" t="n">
-        <v>-0.982869838537835</v>
+        <v>-0.3287401522664616</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.7166723489385678</v>
-      </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>pl1</t>
-        </is>
-      </c>
-      <c r="AA17" t="n">
-        <v>-0.1917960177057504</v>
-      </c>
-      <c r="AB17" t="n">
+        <v>-0.9048805013866602</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.3089665094686421</v>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>Furness E.
+Kopriva V.</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>pl2</t>
+        </is>
+      </c>
+      <c r="AC17" t="n">
+        <v>-0.9048805013866602</v>
+      </c>
+      <c r="AD17" t="n">
         <v>1</v>
       </c>
-      <c r="AC17" t="n">
-        <v>0.4187005729118458</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>3.1</v>
+      <c r="AE17" t="n">
+        <v>0.5133201997916244</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="18">
@@ -2408,12 +2594,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Furness E.</t>
+          <t>Agamenone F.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -2422,16 +2608,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2.34</v>
+        <v>1.34</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Kopriva V.</t>
+          <t>Giustino L.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>CZE</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -2440,88 +2626,99 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1.55</v>
+        <v>3.07</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="L18" t="n">
-        <v>-93</v>
+        <v>-36</v>
       </c>
       <c r="M18" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="N18" t="n">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.4866798002083757</v>
+        <v>0.5232100045330382</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.5133201997916244</v>
+        <v>0.4767899954669618</v>
       </c>
       <c r="R18" t="n">
         <v>0.7368421052631579</v>
       </c>
-      <c r="S18" t="n">
-        <v>0.6255105326959747</v>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>2022-03-15</t>
+        </is>
       </c>
       <c r="T18" t="n">
-        <v>0.3089665094686421</v>
+        <v>0.2243114106073095</v>
       </c>
       <c r="U18" t="n">
-        <v>1.169584745438628</v>
+        <v>0.9405352815505346</v>
       </c>
       <c r="V18" t="n">
-        <v>0.7747249382178947</v>
+        <v>0.6692777469333665</v>
       </c>
       <c r="W18" t="n">
-        <v>-0.3287401522664616</v>
+        <v>1.533345285884653</v>
       </c>
       <c r="X18" t="n">
-        <v>-0.9048805013866602</v>
+        <v>-1.173935026217021</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.6255105326959747</v>
-      </c>
-      <c r="Z18" t="inlineStr">
+        <v>-0.04530272410847649</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.2243114106073095</v>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>Agamenone F.
+Giustino L.</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
         <is>
           <t>pl1</t>
         </is>
       </c>
-      <c r="AA18" t="n">
-        <v>-0.3287401522664616</v>
-      </c>
-      <c r="AB18" t="n">
+      <c r="AC18" t="n">
+        <v>-1.173935026217021</v>
+      </c>
+      <c r="AD18" t="n">
         <v>1</v>
       </c>
-      <c r="AC18" t="n">
-        <v>0.4866798002083757</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>2.34</v>
+      <c r="AE18" t="n">
+        <v>0.5232100045330382</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>clay</t>
+          <t>hard</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pellegrino A.</t>
+          <t>Kecmanovic M.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2530,16 +2727,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3.15</v>
+        <v>2.31</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mager G.</t>
+          <t>Van De Zandschulp B.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -2548,7 +2745,7 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1.33</v>
+        <v>1.62</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2557,63 +2754,74 @@
         <v>-2</v>
       </c>
       <c r="L19" t="n">
-        <v>-790</v>
+        <v>-175</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>-8</v>
       </c>
       <c r="N19" t="n">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.4276809605414212</v>
+        <v>0.5260010714611113</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.5723190394585789</v>
+        <v>0.4739989285388888</v>
       </c>
       <c r="R19" t="n">
         <v>0.7368421052631579</v>
       </c>
-      <c r="S19" t="n">
-        <v>0.7748759862468979</v>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>2022-03-15</t>
+        </is>
       </c>
       <c r="T19" t="n">
-        <v>0.3335033619384888</v>
+        <v>0.7410635465362784</v>
       </c>
       <c r="U19" t="n">
-        <v>1.558438286775152</v>
+        <v>0.2418771927718887</v>
       </c>
       <c r="V19" t="n">
-        <v>0.6580072766383976</v>
+        <v>1.1534372540749</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.1508715588858125</v>
+        <v>0.8089040483122675</v>
       </c>
       <c r="X19" t="n">
-        <v>-1.028099022730526</v>
+        <v>-0.2331608871775334</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.7748759862468979</v>
-      </c>
-      <c r="Z19" t="inlineStr">
+        <v>-0.9495845753655902</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.7410635465362784</v>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>Kecmanovic M.
+Van De Zandschulp B.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
         <is>
           <t>pl1</t>
         </is>
       </c>
-      <c r="AA19" t="n">
-        <v>-0.1508715588858125</v>
-      </c>
-      <c r="AB19" t="n">
+      <c r="AC19" t="n">
+        <v>-0.2331608871775334</v>
+      </c>
+      <c r="AD19" t="n">
         <v>1</v>
       </c>
-      <c r="AC19" t="n">
-        <v>0.4276809605414212</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>3.15</v>
+      <c r="AE19" t="n">
+        <v>0.5260010714611113</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>2.31</v>
       </c>
     </row>
     <row r="20">
@@ -2624,7 +2832,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Simon G.</t>
+          <t>Rinderknech A.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2638,16 +2846,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3.37</v>
+        <v>1.39</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Machac T.</t>
+          <t>Cerundolo F.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>CZE</t>
+          <t>ARG</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2656,72 +2864,83 @@
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1.29</v>
+        <v>2.92</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="L20" t="n">
-        <v>158</v>
+        <v>288</v>
       </c>
       <c r="M20" t="n">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0.5077745472691092</v>
+        <v>0.5750894075909926</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.4922254527308909</v>
+        <v>0.4249105924090075</v>
       </c>
       <c r="R20" t="n">
         <v>0.7368421052631579</v>
       </c>
-      <c r="S20" t="n">
-        <v>1.218974771566007</v>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>2022-03-15</t>
+        </is>
       </c>
       <c r="T20" t="n">
-        <v>0.1271962867537402</v>
+        <v>0.3744636841424722</v>
       </c>
       <c r="U20" t="n">
-        <v>1.684796292804205</v>
+        <v>0.6656495222433094</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6449220230615502</v>
+        <v>0.6871179013781806</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1240356311671282</v>
+        <v>1.443441922319631</v>
       </c>
       <c r="X20" t="n">
-        <v>-1.368853414332862</v>
+        <v>-0.9249305171394989</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.218974771566007</v>
-      </c>
-      <c r="Z20" t="inlineStr">
+        <v>-0.23856205949964</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.3744636841424722</v>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>Rinderknech A.
+Cerundolo F.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
         <is>
           <t>pl1</t>
         </is>
       </c>
-      <c r="AA20" t="n">
-        <v>0.1240356311671282</v>
-      </c>
-      <c r="AB20" t="n">
+      <c r="AC20" t="n">
+        <v>-0.9249305171394989</v>
+      </c>
+      <c r="AD20" t="n">
         <v>1</v>
       </c>
-      <c r="AC20" t="n">
-        <v>0.5077745472691092</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>3.37</v>
+      <c r="AE20" t="n">
+        <v>0.5750894075909926</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>
@@ -2753,5002 +2972,5002 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1</v>
+        <v>12.71126459751837</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1</v>
+        <v>10.98421845440974</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.34</v>
+        <v>7.621264597518374</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-1</v>
+        <v>5.034218454409737</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1</v>
+        <v>10.43421845440974</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>14.77656632512642</v>
+        <v>12.96126459751838</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-1</v>
+        <v>11.09126459751838</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>49.48988322988048</v>
+        <v>5.831264597518375</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.73</v>
+        <v>9.561264597518376</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.25</v>
+        <v>-6.895781545590261</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1</v>
+        <v>17.36126459751837</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2.31</v>
+        <v>9.751264597518375</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.14</v>
+        <v>-5.945781545590263</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-1</v>
+        <v>3.914218454409736</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.37</v>
+        <v>5.101264597518375</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2.83</v>
+        <v>16.75421845440974</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.55</v>
+        <v>11.40421845440974</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-1</v>
+        <v>17.45421845440974</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.14</v>
+        <v>3.224218454409737</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-10.33191716698966</v>
+        <v>17.72126459751838</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-1</v>
+        <v>7.104218454409737</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-1</v>
+        <v>15.61126459751838</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-8.163848798412388</v>
+        <v>9.464218454409739</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-1</v>
+        <v>9.271264597518377</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3.07</v>
+        <v>-1.728735402481625</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-1</v>
+        <v>15.11421845440974</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2.49</v>
+        <v>7.014218454409738</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2.83</v>
+        <v>6.351264597518375</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.15</v>
+        <v>3.624218454409738</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2.55</v>
+        <v>10.43126459751838</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-1</v>
+        <v>-3.265781545590263</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>49.48988322988048</v>
+        <v>1.404218454409738</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-1</v>
+        <v>0.354218454409738</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-1</v>
+        <v>3.434218454409738</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-1</v>
+        <v>9.874218454409739</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-1</v>
+        <v>-0.408735402481625</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-1</v>
+        <v>13.20421845440974</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-1</v>
+        <v>8.374218454409739</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-1</v>
+        <v>11.14421845440974</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2.25</v>
+        <v>2.234218454409739</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-1</v>
+        <v>5.901264597518376</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2.31</v>
+        <v>13.37421845440974</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2.34</v>
+        <v>8.641264597518376</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2.55</v>
+        <v>-0.5457815455902619</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-1</v>
+        <v>3.814218454409739</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-1</v>
+        <v>2.654218454409738</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>-1</v>
+        <v>13.50126459751838</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2.21</v>
+        <v>17.55126459751838</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2.21</v>
+        <v>12.61421845440974</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3.1</v>
+        <v>7.654218454409737</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-8.163848798412388</v>
+        <v>-0.9887354024816251</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>14.77656632512642</v>
+        <v>5.534218454409739</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2.34</v>
+        <v>15.33421845440974</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-1</v>
+        <v>13.35421845440974</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-1</v>
+        <v>6.524218454409739</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-1</v>
+        <v>5.721264597518373</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2.31</v>
+        <v>12.75126459751838</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3.15</v>
+        <v>8.201264597518376</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2.34</v>
+        <v>7.591264597518377</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2.31</v>
+        <v>4.434218454409738</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-1</v>
+        <v>16.79126459751837</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-1</v>
+        <v>0.7812645975183747</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-1</v>
+        <v>0.2242184544097379</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2.31</v>
+        <v>16.82421845440974</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2.31</v>
+        <v>20.97421845440974</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>3.48</v>
+        <v>7.644218454409737</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.21</v>
+        <v>6.071264597518374</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.83</v>
+        <v>3.794218454409737</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>49.48988322988048</v>
+        <v>6.884218454409736</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-1</v>
+        <v>4.331264597518374</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-1</v>
+        <v>20.38126459751837</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-1</v>
+        <v>11.24126459751838</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-1</v>
+        <v>2.514218454409738</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-1</v>
+        <v>8.761264597518375</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>3.07</v>
+        <v>-3.255781545590262</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>3.1</v>
+        <v>5.401264597518376</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-1</v>
+        <v>7.691264597518375</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>3.14</v>
+        <v>11.04126459751838</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-1</v>
+        <v>12.42126459751838</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-1</v>
+        <v>9.801264597518376</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-1</v>
+        <v>23.81126459751837</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>3.14</v>
+        <v>8.721264597518374</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.73</v>
+        <v>11.53421845440974</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.49</v>
+        <v>4.681264597518374</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-1</v>
+        <v>12.58126459751838</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.21</v>
+        <v>11.85126459751837</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.34</v>
+        <v>5.964218454409738</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-1</v>
+        <v>-0.5757815455902624</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-1</v>
+        <v>7.554218454409738</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-1</v>
+        <v>14.22421845440974</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.83</v>
+        <v>15.75126459751838</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-1</v>
+        <v>11.67421845440974</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>-8.163848798412388</v>
+        <v>16.28126459751838</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>14.77656632512642</v>
+        <v>7.981264597518374</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-1</v>
+        <v>15.39126459751838</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>14.77656632512642</v>
+        <v>23.44421845440974</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.73</v>
+        <v>21.08421845440974</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-1</v>
+        <v>11.94126459751838</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-1</v>
+        <v>13.66126459751838</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-1</v>
+        <v>8.294218454409737</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-1</v>
+        <v>3.964218454409738</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-1</v>
+        <v>12.85421845440974</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-1</v>
+        <v>5.764218454409737</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>-1</v>
+        <v>9.604218454409738</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-1</v>
+        <v>19.20126459751838</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>3.14</v>
+        <v>9.484218454409739</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>-1</v>
+        <v>11.01421845440974</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>-1</v>
+        <v>0.7112645975183742</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2.34</v>
+        <v>5.531264597518374</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-1</v>
+        <v>4.744218454409738</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2.34</v>
+        <v>15.32421845440974</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-1</v>
+        <v>9.771264597518375</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>-1</v>
+        <v>-10.82873540248162</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>3.15</v>
+        <v>19.69126459751838</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>14.77656632512642</v>
+        <v>-3.665781545590263</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-1</v>
+        <v>-0.2687354024816258</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-8.163848798412388</v>
+        <v>8.664218454409738</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2.31</v>
+        <v>-2.915781545590263</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-1</v>
+        <v>15.20126459751838</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2.73</v>
+        <v>12.36421845440974</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-1</v>
+        <v>4.161264597518374</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-1</v>
+        <v>-1.375781545590262</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-1</v>
+        <v>12.40126459751838</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-1</v>
+        <v>10.60126459751838</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-10.33191716698966</v>
+        <v>9.224218454409739</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-1</v>
+        <v>5.254218454409738</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>3.48</v>
+        <v>9.794218454409739</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-10.33191716698966</v>
+        <v>10.22421845440974</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2.73</v>
+        <v>13.51126459751838</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-1</v>
+        <v>6.494218454409738</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2.31</v>
+        <v>11.73126459751838</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2.25</v>
+        <v>10.41126459751838</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2.49</v>
+        <v>4.954218454409739</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>3.1</v>
+        <v>10.69126459751838</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2.55</v>
+        <v>-2.788735402481625</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-1</v>
+        <v>6.931264597518375</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>14.77656632512642</v>
+        <v>13.25421845440974</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2.49</v>
+        <v>18.79126459751837</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>3.15</v>
+        <v>13.04421845440974</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2.49</v>
+        <v>7.271264597518377</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2.73</v>
+        <v>21.43126459751838</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>-1</v>
+        <v>12.27126459751838</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>-1</v>
+        <v>14.77126459751838</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-1</v>
+        <v>13.88126459751838</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>-1</v>
+        <v>5.551264597518374</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>3.14</v>
+        <v>14.91126459751838</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>14.77656632512642</v>
+        <v>10.58421845440974</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>3.15</v>
+        <v>0.6042184544097373</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>3.14</v>
+        <v>6.974218454409739</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>-1</v>
+        <v>7.321264597518375</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>-1</v>
+        <v>0.5712645975183746</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>3.14</v>
+        <v>16.02421845440974</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-1</v>
+        <v>13.15126459751838</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2.49</v>
+        <v>-5.795781545590263</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>-1</v>
+        <v>-3.478735402481625</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>49.48988322988048</v>
+        <v>11.78421845440974</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2.31</v>
+        <v>-3.638735402481625</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>3.48</v>
+        <v>15.83421845440974</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>3.07</v>
+        <v>8.721264597518376</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2.34</v>
+        <v>12.07421845440974</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2.21</v>
+        <v>15.24126459751838</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>-1</v>
+        <v>13.29126459751837</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>-1</v>
+        <v>10.67421845440974</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>-1</v>
+        <v>-1.658735402481626</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>3.14</v>
+        <v>-5.978735402481625</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-1</v>
+        <v>15.34421845440974</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2.73</v>
+        <v>10.88126459751838</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-1</v>
+        <v>-3.105781545590262</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2.31</v>
+        <v>8.824218454409738</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-1</v>
+        <v>-2.618735402481625</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-1</v>
+        <v>17.16421845440974</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-1</v>
+        <v>10.26126459751837</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>3.07</v>
+        <v>11.30421845440974</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-1</v>
+        <v>13.05421845440974</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-1</v>
+        <v>13.64421845440974</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2.31</v>
+        <v>2.321264597518375</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-1</v>
+        <v>-3.865781545590262</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-1</v>
+        <v>25.64126459751838</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2.83</v>
+        <v>9.221264597518376</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2.49</v>
+        <v>9.191264597518376</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-1</v>
+        <v>8.814218454409737</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-1</v>
+        <v>12.91421845440974</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-1</v>
+        <v>2.501264597518375</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2.21</v>
+        <v>7.251264597518375</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>-1</v>
+        <v>16.58126459751837</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-1</v>
+        <v>4.504218454409737</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2.31</v>
+        <v>9.334218454409738</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2.31</v>
+        <v>15.91421845440974</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>4.19</v>
+        <v>17.45421845440974</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>-1</v>
+        <v>10.10126459751837</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-1</v>
+        <v>3.381264597518375</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-1</v>
+        <v>0.2842184544097375</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>3.15</v>
+        <v>12.28126459751838</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-1</v>
+        <v>12.42126459751838</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>-1</v>
+        <v>20.39126459751838</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>-1</v>
+        <v>17.22126459751838</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>-1</v>
+        <v>19.36421845440974</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>3.07</v>
+        <v>4.624218454409737</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>3.07</v>
+        <v>15.09126459751838</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>2.25</v>
+        <v>18.27126459751838</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>-1</v>
+        <v>11.41421845440974</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>-1</v>
+        <v>8.834218454409738</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>-1</v>
+        <v>4.714218454409737</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>2.92</v>
+        <v>9.571264597518375</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>-1</v>
+        <v>13.16126459751838</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>-1</v>
+        <v>10.76126459751838</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>3.14</v>
+        <v>7.491264597518376</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>-1</v>
+        <v>9.401264597518376</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>-1</v>
+        <v>12.19421845440974</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>-1</v>
+        <v>6.094218454409738</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>3.1</v>
+        <v>5.944218454409738</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>2.49</v>
+        <v>5.544218454409739</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>2.34</v>
+        <v>5.081264597518374</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>2.31</v>
+        <v>8.614218454409738</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>2.21</v>
+        <v>10.04421845440974</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>-1</v>
+        <v>1.994218454409738</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>-10.33191716698966</v>
+        <v>5.834218454409737</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>-1</v>
+        <v>13.74126459751838</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>2.83</v>
+        <v>14.22421845440974</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>-1</v>
+        <v>13.49126459751838</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>-1</v>
+        <v>-8.935781545590263</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>-1</v>
+        <v>3.074218454409738</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>2.73</v>
+        <v>14.65421845440974</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>3.37</v>
+        <v>2.484218454409738</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>2.49</v>
+        <v>2.941264597518375</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>2.73</v>
+        <v>-2.225781545590262</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>3.48</v>
+        <v>-0.4357815455902614</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>2.49</v>
+        <v>10.13421845440974</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>2.31</v>
+        <v>4.774218454409739</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>4.19</v>
+        <v>7.681264597518375</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>-1</v>
+        <v>13.18421845440974</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>-1</v>
+        <v>-1.238735402481627</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>-1</v>
+        <v>6.591264597518375</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>-1</v>
+        <v>4.134218454409737</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>3.07</v>
+        <v>2.464218454409738</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>14.77656632512642</v>
+        <v>0.374218454409738</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>14.77656632512642</v>
+        <v>17.70126459751837</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>3.14</v>
+        <v>3.704218454409737</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>-1</v>
+        <v>-1.925781545590262</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>3.15</v>
+        <v>11.75421845440974</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>2.92</v>
+        <v>15.65421845440974</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>-1</v>
+        <v>12.22126459751838</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>3.15</v>
+        <v>9.704218454409739</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>-1</v>
+        <v>8.964218454409737</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>2.92</v>
+        <v>15.07126459751838</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>-1</v>
+        <v>-1.055781545590262</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>-1</v>
+        <v>8.564218454409739</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>-1</v>
+        <v>13.04126459751838</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>2.25</v>
+        <v>9.664218454409738</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>-10.33191716698966</v>
+        <v>4.611264597518375</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>-1</v>
+        <v>3.254218454409737</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>2.21</v>
+        <v>12.11126459751838</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>2.49</v>
+        <v>13.94126459751838</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>-1</v>
+        <v>9.861264597518375</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>2.73</v>
+        <v>4.841264597518375</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>14.77656632512642</v>
+        <v>-2.708735402481625</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>-1</v>
+        <v>11.65126459751838</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>-1</v>
+        <v>-4.085781545590262</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>-8.163848798412388</v>
+        <v>7.014218454409738</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>-1</v>
+        <v>14.68421845440974</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>3.07</v>
+        <v>6.494218454409739</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>-1</v>
+        <v>3.114218454409738</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>-1</v>
+        <v>12.01126459751838</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>3.07</v>
+        <v>7.604218454409737</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>-1</v>
+        <v>4.141264597518374</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>-1</v>
+        <v>14.38421845440974</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>-1</v>
+        <v>2.871264597518375</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>2.73</v>
+        <v>4.831264597518374</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>-1</v>
+        <v>4.111264597518375</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>-1</v>
+        <v>-1.835781545590262</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>2.49</v>
+        <v>0.4712645975183747</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>2.55</v>
+        <v>14.33421845440974</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>-1</v>
+        <v>15.44126459751838</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>14.77656632512642</v>
+        <v>13.83126459751838</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>-10.33191716698966</v>
+        <v>5.984218454409739</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>-1</v>
+        <v>16.94126459751838</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>-1</v>
+        <v>12.86126459751837</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>-1</v>
+        <v>0.4212645975183751</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>3.15</v>
+        <v>14.72126459751838</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>-1</v>
+        <v>7.061264597518376</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>3.48</v>
+        <v>12.52421845440974</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>3.48</v>
+        <v>-0.375781545590262</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>-1</v>
+        <v>-0.02873540248162532</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>2.31</v>
+        <v>18.25421845440973</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>-1</v>
+        <v>9.67421845440974</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>-1</v>
+        <v>14.75126459751838</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>2.31</v>
+        <v>-4.925781545590263</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>2.21</v>
+        <v>9.914218454409738</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>-1</v>
+        <v>7.554218454409736</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>-1</v>
+        <v>7.871264597518374</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>14.77656632512642</v>
+        <v>5.221264597518375</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>2.55</v>
+        <v>16.99126459751838</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>-1</v>
+        <v>6.561264597518376</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>3.48</v>
+        <v>0.5342184544097379</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>-1</v>
+        <v>10.72421845440974</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>-1</v>
+        <v>2.701264597518375</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>2.31</v>
+        <v>1.471264597518375</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>2.21</v>
+        <v>4.514218454409738</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>2.83</v>
+        <v>13.08421845440974</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>-1</v>
+        <v>7.961264597518375</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>2.73</v>
+        <v>13.50421845440974</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>-1</v>
+        <v>6.561264597518376</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>-1</v>
+        <v>11.91126459751838</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>3.37</v>
+        <v>8.034218454409737</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>3.14</v>
+        <v>15.02126459751838</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>3.15</v>
+        <v>11.93421845440974</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>-1</v>
+        <v>4.591264597518374</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>3.14</v>
+        <v>14.00126459751838</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>-1</v>
+        <v>2.251264597518375</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>3.37</v>
+        <v>5.874218454409739</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>-1</v>
+        <v>11.67421845440974</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>4.19</v>
+        <v>9.871264597518374</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>3.15</v>
+        <v>6.751264597518373</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>3.07</v>
+        <v>5.381264597518374</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>-1</v>
+        <v>12.45421845440974</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>3.48</v>
+        <v>9.381264597518376</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>2.92</v>
+        <v>14.86421845440974</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>-1</v>
+        <v>13.03421845440974</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>-1</v>
+        <v>14.61421845440974</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>4.19</v>
+        <v>6.091264597518375</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>2.55</v>
+        <v>-0.1487354024816254</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>-10.33191716698966</v>
+        <v>8.571264597518375</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>-1</v>
+        <v>13.84126459751838</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>2.31</v>
+        <v>7.644218454409739</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>-1</v>
+        <v>4.141264597518375</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>-1</v>
+        <v>7.731264597518375</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>-1</v>
+        <v>15.36421845440974</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>-1</v>
+        <v>1.091264597518374</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>-1</v>
+        <v>0.3142184544097377</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>-1</v>
+        <v>10.58126459751838</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>3.07</v>
+        <v>7.434218454409737</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>-1</v>
+        <v>9.494218454409738</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>2.31</v>
+        <v>7.351264597518375</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>-1</v>
+        <v>10.93126459751837</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>-10.33191716698966</v>
+        <v>9.661264597518375</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>-1</v>
+        <v>-3.915781545590262</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>-1</v>
+        <v>13.60421845440974</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>49.48988322988048</v>
+        <v>7.484218454409739</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>-1</v>
+        <v>0.3742184544097378</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>-1</v>
+        <v>4.104218454409738</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>-1</v>
+        <v>10.64421845440974</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>-1</v>
+        <v>7.761264597518375</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>-1</v>
+        <v>2.324218454409738</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>2.25</v>
+        <v>14.31126459751838</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>-1</v>
+        <v>8.294218454409739</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2.92</v>
+        <v>3.371264597518376</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2.31</v>
+        <v>15.71126459751838</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>-1</v>
+        <v>10.71421845440974</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>2.55</v>
+        <v>5.294218454409738</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>-1</v>
+        <v>11.90126459751838</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>2.83</v>
+        <v>5.541264597518374</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>-1</v>
+        <v>12.81126459751838</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>-1</v>
+        <v>23.39126459751838</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>2.31</v>
+        <v>-1.805781545590262</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>-1</v>
+        <v>-3.525781545590262</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>2.55</v>
+        <v>15.20126459751838</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>-1</v>
+        <v>4.334218454409738</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>-1</v>
+        <v>16.52126459751837</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>2.31</v>
+        <v>13.22421845440974</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>-1</v>
+        <v>3.254218454409738</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>3.37</v>
+        <v>8.781264597518376</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>-10.33191716698966</v>
+        <v>14.60126459751838</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>2.25</v>
+        <v>17.62126459751838</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>2.92</v>
+        <v>6.401264597518374</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>2.55</v>
+        <v>4.944218454409738</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>-1</v>
+        <v>-3.475781545590263</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>2.25</v>
+        <v>6.411264597518376</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>-1</v>
+        <v>9.321264597518375</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>2.92</v>
+        <v>17.50421845440974</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>2.31</v>
+        <v>3.841264597518375</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>-1</v>
+        <v>5.644218454409739</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>-1</v>
+        <v>-0.5787354024816258</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>2.55</v>
+        <v>3.624218454409737</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>14.77656632512642</v>
+        <v>-0.2557815455902628</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>-1</v>
+        <v>8.561264597518376</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>-1</v>
+        <v>9.704218454409739</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>-1</v>
+        <v>7.151264597518376</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>-1</v>
+        <v>7.454218454409739</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>-1</v>
+        <v>10.82421845440974</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>3.14</v>
+        <v>12.72126459751838</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>-1</v>
+        <v>6.194218454409738</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>-1</v>
+        <v>10.06126459751838</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>2.31</v>
+        <v>-5.745781545590262</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>2.21</v>
+        <v>14.28421845440974</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>-1</v>
+        <v>7.211264597518375</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>-1</v>
+        <v>3.911264597518374</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>-1</v>
+        <v>-2.668735402481626</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>3.37</v>
+        <v>6.341264597518375</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>-1</v>
+        <v>11.39126459751837</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>-1</v>
+        <v>21.15126459751837</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>14.77656632512642</v>
+        <v>7.674218454409737</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>-1</v>
+        <v>12.36421845440974</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>-1</v>
+        <v>2.111264597518375</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>3.37</v>
+        <v>2.014218454409738</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>-1</v>
+        <v>-0.5887354024816245</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>2.21</v>
+        <v>3.904218454409738</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>14.77656632512642</v>
+        <v>5.514218454409738</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>-1</v>
+        <v>0.834218454409738</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>2.73</v>
+        <v>9.334218454409738</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>-10.33191716698966</v>
+        <v>10.06126459751838</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>2.49</v>
+        <v>-9.345781545590262</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>2.49</v>
+        <v>3.231264597518376</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>-1</v>
+        <v>8.491264597518375</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>-1</v>
+        <v>2.961264597518374</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>3.37</v>
+        <v>3.251264597518375</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>-1</v>
+        <v>17.32126459751838</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>2.31</v>
+        <v>14.75126459751838</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>-1</v>
+        <v>4.741264597518375</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>2.31</v>
+        <v>5.014218454409738</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>-1</v>
+        <v>17.03421845440974</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>-1</v>
+        <v>17.04421845440974</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>2.34</v>
+        <v>6.491264597518374</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>2.92</v>
+        <v>-0.03873540248162555</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>49.48988322988048</v>
+        <v>14.34126459751838</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>2.25</v>
+        <v>7.621264597518376</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>2.31</v>
+        <v>8.111264597518375</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>-1</v>
+        <v>12.41126459751838</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>3.14</v>
+        <v>6.811264597518375</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>2.21</v>
+        <v>12.05126459751838</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>3.1</v>
+        <v>6.734218454409739</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>-1</v>
+        <v>9.554218454409739</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>2.55</v>
+        <v>0.3712645975183746</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>14.77656632512642</v>
+        <v>10.95126459751838</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>-1</v>
+        <v>8.641264597518376</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>-1</v>
+        <v>6.431264597518375</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>14.77656632512642</v>
+        <v>10.64126459751838</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>-1</v>
+        <v>19.33126459751837</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>2.83</v>
+        <v>15.45126459751837</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>-1</v>
+        <v>9.114218454409739</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>14.77656632512642</v>
+        <v>-2.885781545590263</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>4.19</v>
+        <v>0.1242184544097367</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>-8.163848798412388</v>
+        <v>2.264218454409738</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>-1</v>
+        <v>13.63421845440974</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>-1</v>
+        <v>2.911264597518375</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>-1</v>
+        <v>13.17126459751838</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>-1</v>
+        <v>14.96126459751838</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>-1</v>
+        <v>16.97126459751838</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>-1</v>
+        <v>2.894218454409737</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>-1</v>
+        <v>6.791264597518376</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>2.92</v>
+        <v>15.51126459751837</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>2.49</v>
+        <v>13.64421845440974</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>2.49</v>
+        <v>0.01421845440973768</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>2.55</v>
+        <v>20.82126459751838</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>2.55</v>
+        <v>0.3742184544097378</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>3.37</v>
+        <v>5.914218454409737</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>2.31</v>
+        <v>0.2542184544097379</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>3.48</v>
+        <v>13.50126459751838</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>-1</v>
+        <v>3.051264597518375</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>14.77656632512642</v>
+        <v>26.16126459751838</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>14.77656632512642</v>
+        <v>8.931264597518377</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>-1</v>
+        <v>4.264218454409738</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>-1</v>
+        <v>10.79421845440974</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>-1</v>
+        <v>15.99126459751838</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>-1</v>
+        <v>10.18421845440974</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>2.31</v>
+        <v>4.701264597518374</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>3.48</v>
+        <v>11.83126459751838</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>-1</v>
+        <v>6.814218454409738</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>-1</v>
+        <v>12.04421845440974</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>-1</v>
+        <v>14.56126459751838</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>-10.33191716698966</v>
+        <v>19.56126459751837</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>-1</v>
+        <v>3.244218454409738</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>2.73</v>
+        <v>9.224218454409739</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>3.48</v>
+        <v>-4.215781545590262</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>2.92</v>
+        <v>0.264218454409739</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>-1</v>
+        <v>-1.148735402481626</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>2.49</v>
+        <v>7.061264597518374</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>3.14</v>
+        <v>1.964218454409737</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>2.31</v>
+        <v>15.02421845440974</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>2.21</v>
+        <v>7.421264597518374</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>-1</v>
+        <v>-1.675781545590262</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>3.15</v>
+        <v>12.94421845440974</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>-1</v>
+        <v>21.21126459751837</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>-1</v>
+        <v>13.43126459751838</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>3.37</v>
+        <v>1.251264597518375</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>2.31</v>
+        <v>1.244218454409738</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>2.34</v>
+        <v>8.404218454409738</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>-1</v>
+        <v>9.284218454409739</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>2.55</v>
+        <v>2.861264597518375</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>-10.33191716698966</v>
+        <v>14.29126459751838</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>-1</v>
+        <v>-8.235781545590262</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>-1</v>
+        <v>7.901264597518375</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>-1</v>
+        <v>13.07421845440974</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>14.77656632512642</v>
+        <v>8.90421845440974</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>3.48</v>
+        <v>5.461264597518373</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>-1</v>
+        <v>9.831264597518375</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>2.21</v>
+        <v>8.611264597518376</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>-1</v>
+        <v>2.034218454409738</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>-1</v>
+        <v>14.61421845440974</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>2.55</v>
+        <v>-1.475781545590262</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>-1</v>
+        <v>10.40126459751838</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>-1</v>
+        <v>9.341264597518375</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>2.83</v>
+        <v>7.204218454409737</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>-1</v>
+        <v>4.494218454409738</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>14.77656632512642</v>
+        <v>0.6512645975183742</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>-1</v>
+        <v>21.01421845440974</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>-1</v>
+        <v>4.264218454409738</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>-1</v>
+        <v>16.29421845440974</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>2.21</v>
+        <v>4.474218454409738</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>4.19</v>
+        <v>20.94126459751838</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>-10.33191716698966</v>
+        <v>15.81126459751838</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>-1</v>
+        <v>5.541264597518376</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>-1</v>
+        <v>5.784218454409738</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>2.25</v>
+        <v>10.12421845440974</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>-1</v>
+        <v>10.90126459751838</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>3.14</v>
+        <v>12.85126459751838</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>-1</v>
+        <v>5.854218454409737</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>-1</v>
+        <v>-1.508735402481625</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>14.77656632512642</v>
+        <v>5.611264597518376</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>-1</v>
+        <v>6.894218454409739</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>-1</v>
+        <v>13.55126459751838</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>-1</v>
+        <v>14.95421845440974</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>-1</v>
+        <v>5.39421845440974</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>49.48988322988048</v>
+        <v>10.77126459751838</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>-1</v>
+        <v>4.144218454409738</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>3.37</v>
+        <v>0.06126459751837476</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>49.48988322988048</v>
+        <v>2.721264597518376</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>3.14</v>
+        <v>17.75421845440974</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>-1</v>
+        <v>8.254218454409738</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>2.34</v>
+        <v>-1.368735402481626</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>2.34</v>
+        <v>21.41421845440974</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="n">
-        <v>-1</v>
+        <v>10.18126459751838</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="n">
-        <v>-1</v>
+        <v>10.61126459751838</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="n">
-        <v>3.07</v>
+        <v>-1.648735402481625</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
-        <v>2.92</v>
+        <v>15.28126459751838</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="n">
-        <v>3.37</v>
+        <v>5.631264597518376</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="n">
-        <v>-1</v>
+        <v>2.204218454409738</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="n">
-        <v>-1</v>
+        <v>7.924218454409738</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="n">
-        <v>2.25</v>
+        <v>16.55126459751838</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="n">
-        <v>2.31</v>
+        <v>0.9512645975183744</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="n">
-        <v>2.73</v>
+        <v>5.041264597518376</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="n">
-        <v>-1</v>
+        <v>13.76126459751837</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="n">
-        <v>3.15</v>
+        <v>12.94126459751837</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="n">
-        <v>-1</v>
+        <v>3.234218454409739</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="n">
-        <v>-10.33191716698966</v>
+        <v>-0.9257815455902616</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="n">
-        <v>2.92</v>
+        <v>16.72126459751838</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="n">
-        <v>2.25</v>
+        <v>8.421264597518375</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="n">
-        <v>-1</v>
+        <v>6.121264597518373</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="n">
-        <v>2.73</v>
+        <v>9.754218454409738</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="n">
-        <v>14.77656632512642</v>
+        <v>9.931264597518375</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="n">
-        <v>2.31</v>
+        <v>-6.935781545590262</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="n">
-        <v>3.1</v>
+        <v>-3.855781545590261</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="n">
-        <v>14.77656632512642</v>
+        <v>3.691264597518375</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="n">
-        <v>3.1</v>
+        <v>6.651264597518376</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="n">
-        <v>49.48988322988048</v>
+        <v>12.50126459751838</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="n">
-        <v>-1</v>
+        <v>5.344218454409738</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="n">
-        <v>-1</v>
+        <v>6.894218454409738</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="n">
-        <v>-1</v>
+        <v>-3.485781545590262</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="n">
-        <v>-1</v>
+        <v>6.521264597518375</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="n">
-        <v>2.31</v>
+        <v>18.65126459751838</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
-        <v>3.1</v>
+        <v>14.46126459751838</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="n">
-        <v>2.25</v>
+        <v>4.211264597518376</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="n">
-        <v>3.37</v>
+        <v>-0.6157815455902627</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="n">
-        <v>3.07</v>
+        <v>14.85421845440974</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="n">
-        <v>2.31</v>
+        <v>4.241264597518374</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="n">
-        <v>-1</v>
+        <v>18.41126459751838</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="n">
-        <v>49.48988322988048</v>
+        <v>10.72126459751838</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="n">
-        <v>-1</v>
+        <v>12.68126459751837</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="n">
-        <v>2.55</v>
+        <v>10.75421845440974</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="n">
-        <v>-1</v>
+        <v>12.35126459751838</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="n">
-        <v>-1</v>
+        <v>2.854218454409738</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="n">
-        <v>2.55</v>
+        <v>-2.295781545590263</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="n">
-        <v>-1</v>
+        <v>10.59126459751838</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="n">
-        <v>-1</v>
+        <v>12.30421845440974</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="n">
-        <v>14.77656632512642</v>
+        <v>16.73126459751838</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="n">
-        <v>-1</v>
+        <v>11.89126459751838</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="n">
-        <v>2.55</v>
+        <v>12.17126459751838</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="n">
-        <v>2.55</v>
+        <v>10.52421845440974</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="n">
-        <v>14.77656632512642</v>
+        <v>7.554218454409738</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="n">
-        <v>-10.33191716698966</v>
+        <v>-3.018735402481626</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="n">
-        <v>2.55</v>
+        <v>5.294218454409737</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="n">
-        <v>-1</v>
+        <v>-4.065781545590262</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="n">
-        <v>3.07</v>
+        <v>-5.625781545590264</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="n">
-        <v>-8.163848798412388</v>
+        <v>9.221264597518376</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
-        <v>-1</v>
+        <v>3.001264597518374</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" t="n">
-        <v>2.25</v>
+        <v>9.281264597518376</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="n">
-        <v>14.77656632512642</v>
+        <v>4.994218454409737</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" t="n">
-        <v>2.25</v>
+        <v>10.93126459751837</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" t="n">
-        <v>3.48</v>
+        <v>10.24126459751838</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" t="n">
-        <v>4.19</v>
+        <v>13.64126459751838</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="n">
-        <v>2.21</v>
+        <v>8.731264597518376</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="n">
-        <v>-1</v>
+        <v>28.42126459751838</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" t="n">
-        <v>-1</v>
+        <v>5.064218454409739</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" t="n">
-        <v>-1</v>
+        <v>8.654218454409738</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" t="n">
-        <v>-10.33191716698966</v>
+        <v>1.404218454409738</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
-        <v>2.31</v>
+        <v>7.101264597518374</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" t="n">
-        <v>2.92</v>
+        <v>11.74126459751838</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="n">
-        <v>-1</v>
+        <v>8.174218454409738</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" t="n">
-        <v>2.21</v>
+        <v>12.57126459751838</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" t="n">
-        <v>-1</v>
+        <v>11.40421845440974</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" t="n">
-        <v>2.31</v>
+        <v>14.30421845440974</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" t="n">
-        <v>2.25</v>
+        <v>8.84421845440974</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" t="n">
-        <v>2.55</v>
+        <v>7.464218454409737</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="n">
-        <v>2.49</v>
+        <v>13.23126459751838</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" t="n">
-        <v>2.25</v>
+        <v>5.261264597518374</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="n">
-        <v>-1</v>
+        <v>14.21126459751838</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="n">
-        <v>2.25</v>
+        <v>2.571264597518375</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" t="n">
-        <v>14.77656632512642</v>
+        <v>22.37126459751837</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" t="n">
-        <v>-1</v>
+        <v>12.91126459751838</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" t="n">
-        <v>-1</v>
+        <v>-0.658735402481625</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" t="n">
-        <v>-10.33191716698966</v>
+        <v>7.091264597518375</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" t="n">
-        <v>14.77656632512642</v>
+        <v>0.0742184544097384</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" t="n">
-        <v>-1</v>
+        <v>14.16421845440974</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" t="n">
-        <v>-1</v>
+        <v>9.951264597518376</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" t="n">
-        <v>-1</v>
+        <v>15.01126459751838</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="n">
-        <v>2.31</v>
+        <v>2.184218454409738</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" t="n">
-        <v>-1</v>
+        <v>9.681264597518377</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" t="n">
-        <v>2.21</v>
+        <v>4.474218454409737</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" t="n">
-        <v>-1</v>
+        <v>5.231264597518375</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="n">
-        <v>2.31</v>
+        <v>28.45126459751838</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" t="n">
-        <v>-10.33191716698966</v>
+        <v>10.21126459751838</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="n">
-        <v>14.77656632512642</v>
+        <v>8.821264597518375</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="n">
-        <v>-1</v>
+        <v>15.10126459751838</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" t="n">
-        <v>2.49</v>
+        <v>3.194218454409738</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" t="n">
-        <v>-1</v>
+        <v>10.20126459751838</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" t="n">
-        <v>-1</v>
+        <v>8.314218454409739</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" t="n">
-        <v>2.73</v>
+        <v>11.69421845440974</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
-        <v>3.07</v>
+        <v>15.48126459751838</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="n">
-        <v>2.92</v>
+        <v>-1.985781545590262</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" t="n">
-        <v>2.83</v>
+        <v>12.06126459751838</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" t="n">
-        <v>-1</v>
+        <v>4.021264597518375</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
-        <v>-1</v>
+        <v>-1.645781545590262</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" t="n">
-        <v>-1</v>
+        <v>16.73421845440973</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" t="n">
-        <v>14.77656632512642</v>
+        <v>9.971264597518378</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" t="n">
-        <v>-1</v>
+        <v>11.71126459751838</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="n">
-        <v>-1</v>
+        <v>8.504218454409738</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="n">
-        <v>3.48</v>
+        <v>-1.295781545590262</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="n">
-        <v>2.21</v>
+        <v>9.284218454409739</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" t="n">
-        <v>3.48</v>
+        <v>-0.7457815455902623</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" t="n">
-        <v>3.15</v>
+        <v>8.911264597518374</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" t="n">
-        <v>-1</v>
+        <v>4.384218454409737</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="n">
-        <v>2.34</v>
+        <v>1.504218454409737</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="n">
-        <v>-1</v>
+        <v>4.604218454409739</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="n">
-        <v>49.48988322988048</v>
+        <v>13.00126459751838</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="n">
-        <v>-1</v>
+        <v>2.021264597518375</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="n">
-        <v>-1</v>
+        <v>5.304218454409738</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="n">
-        <v>-1</v>
+        <v>8.331264597518375</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="n">
-        <v>2.31</v>
+        <v>0.1842184544097374</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="n">
-        <v>-1</v>
+        <v>7.054218454409737</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
-        <v>3.14</v>
+        <v>16.15126459751837</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="n">
-        <v>-1</v>
+        <v>12.85126459751838</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="n">
-        <v>2.55</v>
+        <v>6.601264597518377</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="n">
-        <v>-1</v>
+        <v>14.72126459751838</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="n">
-        <v>-1</v>
+        <v>13.74126459751838</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="n">
-        <v>-1</v>
+        <v>-0.3757815455902629</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="n">
-        <v>-1</v>
+        <v>16.20126459751837</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="n">
-        <v>4.19</v>
+        <v>13.90421845440974</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" t="n">
-        <v>2.49</v>
+        <v>21.55126459751838</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="n">
-        <v>-1</v>
+        <v>8.361264597518375</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" t="n">
-        <v>2.31</v>
+        <v>13.49126459751838</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" t="n">
-        <v>-1</v>
+        <v>11.53126459751838</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
-        <v>-10.33191716698966</v>
+        <v>12.87126459751838</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" t="n">
-        <v>-8.163848798412388</v>
+        <v>0.4912645975183743</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
-        <v>-1</v>
+        <v>2.264218454409739</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" t="n">
-        <v>-1</v>
+        <v>16.84126459751838</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" t="n">
-        <v>2.49</v>
+        <v>17.48421845440974</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" t="n">
-        <v>-10.33191716698966</v>
+        <v>4.491264597518374</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" t="n">
-        <v>-10.33191716698966</v>
+        <v>13.27126459751838</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" t="n">
-        <v>-1</v>
+        <v>6.094218454409736</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="n">
-        <v>-1</v>
+        <v>19.85126459751837</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" t="n">
-        <v>14.77656632512642</v>
+        <v>9.861264597518375</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" t="n">
-        <v>2.21</v>
+        <v>1.851264597518375</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="n">
-        <v>49.48988322988048</v>
+        <v>8.991264597518374</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" t="n">
-        <v>2.83</v>
+        <v>11.10421845440974</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" t="n">
-        <v>-10.33191716698966</v>
+        <v>4.524218454409738</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" t="n">
-        <v>-1</v>
+        <v>9.094218454409738</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
-        <v>-1</v>
+        <v>9.544218454409739</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="n">
-        <v>2.73</v>
+        <v>1.624218454409738</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" t="n">
-        <v>-1</v>
+        <v>5.044218454409739</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="n">
-        <v>-10.33191716698966</v>
+        <v>-2.348735402481625</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" t="n">
-        <v>-1</v>
+        <v>11.88126459751838</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" t="n">
-        <v>-1</v>
+        <v>10.10421845440974</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="n">
-        <v>2.34</v>
+        <v>3.601264597518375</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="n">
-        <v>2.31</v>
+        <v>5.911264597518374</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="n">
-        <v>-1</v>
+        <v>9.404218454409738</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="n">
-        <v>-1</v>
+        <v>-0.845781545590262</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="n">
-        <v>3.37</v>
+        <v>4.681264597518375</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
-        <v>4.19</v>
+        <v>6.661264597518374</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="n">
-        <v>-1</v>
+        <v>15.44126459751838</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="n">
-        <v>2.31</v>
+        <v>7.584218454409738</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="n">
-        <v>-1</v>
+        <v>8.021264597518377</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="n">
-        <v>-1</v>
+        <v>5.821264597518374</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="n">
-        <v>-1</v>
+        <v>-3.485781545590263</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="n">
-        <v>3.37</v>
+        <v>1.614218454409737</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="n">
-        <v>-1</v>
+        <v>9.321264597518375</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="n">
-        <v>-1</v>
+        <v>8.104218454409738</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" t="n">
-        <v>-1</v>
+        <v>8.171264597518375</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" t="n">
-        <v>3.48</v>
+        <v>18.89126459751837</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" t="n">
-        <v>-1</v>
+        <v>3.804218454409737</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" t="n">
-        <v>-1</v>
+        <v>8.091264597518375</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" t="n">
-        <v>-1</v>
+        <v>4.694218454409738</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="n">
-        <v>-1</v>
+        <v>1.054218454409738</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="n">
-        <v>2.34</v>
+        <v>17.55126459751838</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" t="n">
-        <v>2.31</v>
+        <v>4.401264597518376</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" t="n">
-        <v>-1</v>
+        <v>4.201264597518374</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" t="n">
-        <v>2.25</v>
+        <v>3.814218454409739</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" t="n">
-        <v>-1</v>
+        <v>5.614218454409738</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" t="n">
-        <v>-1</v>
+        <v>0.754218454409737</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="n">
-        <v>2.55</v>
+        <v>0.9442184544097378</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" t="n">
-        <v>-1</v>
+        <v>19.02126459751837</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="n">
-        <v>2.55</v>
+        <v>7.844218454409739</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" t="n">
-        <v>3.1</v>
+        <v>0.9412645975183747</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" t="n">
-        <v>-1</v>
+        <v>8.854218454409738</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" t="n">
-        <v>-1</v>
+        <v>10.67126459751838</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" t="n">
-        <v>-1</v>
+        <v>9.731264597518376</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" t="n">
-        <v>2.21</v>
+        <v>2.451264597518374</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>-1</v>
+        <v>10.00126459751838</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>-1</v>
+        <v>7.114218454409738</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>-1</v>
+        <v>15.07126459751838</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>-1</v>
+        <v>-0.2857815455902621</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>-1</v>
+        <v>5.631264597518376</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="n">
-        <v>-1</v>
+        <v>-2.535781545590263</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" t="n">
-        <v>2.73</v>
+        <v>3.711264597518374</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" t="n">
-        <v>14.77656632512642</v>
+        <v>-4.665781545590263</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="n">
-        <v>-1</v>
+        <v>11.39421845440974</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="n">
-        <v>2.31</v>
+        <v>11.44126459751837</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="n">
-        <v>3.37</v>
+        <v>2.224218454409738</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="n">
-        <v>2.31</v>
+        <v>4.564218454409739</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
-        <v>3.07</v>
+        <v>11.54126459751838</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="n">
-        <v>2.55</v>
+        <v>19.16421845440974</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="n">
-        <v>3.14</v>
+        <v>10.05421845440974</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="n">
-        <v>49.48988322988048</v>
+        <v>4.241264597518375</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="n">
-        <v>49.48988322988048</v>
+        <v>2.231264597518375</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="n">
-        <v>-1</v>
+        <v>0.7242184544097381</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="n">
-        <v>-1</v>
+        <v>10.60126459751837</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="n">
-        <v>2.49</v>
+        <v>4.884218454409737</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="n">
-        <v>2.25</v>
+        <v>10.83126459751838</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="n">
-        <v>-1</v>
+        <v>12.67421845440974</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="n">
-        <v>2.49</v>
+        <v>9.414218454409738</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
-        <v>2.34</v>
+        <v>-2.635781545590262</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
-        <v>-1</v>
+        <v>-1.465781545590263</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
-        <v>2.21</v>
+        <v>3.984218454409737</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="n">
-        <v>2.31</v>
+        <v>14.49421845440974</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="n">
-        <v>-1</v>
+        <v>-2.428735402481625</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="n">
-        <v>2.21</v>
+        <v>6.734218454409737</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="n">
-        <v>3.1</v>
+        <v>-7.038735402481627</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="n">
-        <v>3.07</v>
+        <v>5.834218454409737</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="n">
-        <v>3.14</v>
+        <v>2.371264597518376</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="n">
-        <v>-1</v>
+        <v>7.521264597518374</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="n">
-        <v>2.49</v>
+        <v>10.58126459751838</v>
       </c>
     </row>
     <row r="741">
       <c r="A741" t="n">
-        <v>14.77656632512642</v>
+        <v>3.624218454409737</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="n">
-        <v>-1</v>
+        <v>15.42421845440974</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="n">
-        <v>3.1</v>
+        <v>7.381264597518374</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
-        <v>-1</v>
+        <v>15.15126459751838</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="n">
-        <v>-1</v>
+        <v>18.38126459751837</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="n">
-        <v>-1</v>
+        <v>9.321264597518375</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="n">
-        <v>-1</v>
+        <v>7.274218454409739</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="n">
-        <v>49.48988322988048</v>
+        <v>8.564218454409737</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="n">
-        <v>-1</v>
+        <v>7.911264597518374</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="n">
-        <v>-1</v>
+        <v>10.19126459751838</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="n">
-        <v>-1</v>
+        <v>5.131264597518374</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="n">
-        <v>-1</v>
+        <v>14.15126459751838</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="n">
-        <v>3.15</v>
+        <v>7.214218454409737</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="n">
-        <v>14.77656632512642</v>
+        <v>-3.025781545590262</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="n">
-        <v>-10.33191716698966</v>
+        <v>-10.80578154559026</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="n">
-        <v>-1</v>
+        <v>-2.035781545590262</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="n">
-        <v>-10.33191716698966</v>
+        <v>-4.595781545590262</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="n">
-        <v>-10.33191716698966</v>
+        <v>2.194218454409738</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="n">
-        <v>3.14</v>
+        <v>-0.7457815455902621</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="n">
-        <v>-1</v>
+        <v>5.151264597518374</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="n">
-        <v>2.49</v>
+        <v>9.874218454409737</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="n">
-        <v>-1</v>
+        <v>3.364218454409738</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="n">
-        <v>2.31</v>
+        <v>2.574218454409738</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="n">
-        <v>-1</v>
+        <v>-0.1087354024816252</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
-        <v>-1</v>
+        <v>6.081264597518374</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
-        <v>49.48988322988048</v>
+        <v>15.53421845440974</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
-        <v>2.92</v>
+        <v>15.03126459751838</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="n">
-        <v>2.21</v>
+        <v>3.014218454409737</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="n">
-        <v>3.07</v>
+        <v>1.731264597518375</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
-        <v>3.1</v>
+        <v>6.441264597518374</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="n">
-        <v>2.55</v>
+        <v>3.731264597518374</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="n">
-        <v>-1</v>
+        <v>20.17126459751838</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="n">
-        <v>-1</v>
+        <v>-1.308735402481625</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="n">
-        <v>3.37</v>
+        <v>1.874218454409737</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="n">
-        <v>49.48988322988048</v>
+        <v>-1.158735402481625</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="n">
-        <v>-1</v>
+        <v>10.86126459751837</v>
       </c>
     </row>
     <row r="777">
       <c r="A777" t="n">
-        <v>-1</v>
+        <v>7.934218454409739</v>
       </c>
     </row>
     <row r="778">
       <c r="A778" t="n">
-        <v>14.77656632512642</v>
+        <v>9.161264597518375</v>
       </c>
     </row>
     <row r="779">
       <c r="A779" t="n">
-        <v>-1</v>
+        <v>13.92421845440974</v>
       </c>
     </row>
     <row r="780">
       <c r="A780" t="n">
-        <v>2.49</v>
+        <v>16.01126459751838</v>
       </c>
     </row>
     <row r="781">
       <c r="A781" t="n">
-        <v>4.19</v>
+        <v>8.701264597518374</v>
       </c>
     </row>
     <row r="782">
       <c r="A782" t="n">
-        <v>2.31</v>
+        <v>5.974218454409737</v>
       </c>
     </row>
     <row r="783">
       <c r="A783" t="n">
-        <v>2.73</v>
+        <v>7.331264597518375</v>
       </c>
     </row>
     <row r="784">
       <c r="A784" t="n">
-        <v>3.07</v>
+        <v>17.81126459751838</v>
       </c>
     </row>
     <row r="785">
       <c r="A785" t="n">
-        <v>3.15</v>
+        <v>-2.125781545590263</v>
       </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
-        <v>2.21</v>
+        <v>14.78126459751838</v>
       </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
-        <v>-1</v>
+        <v>2.354218454409737</v>
       </c>
     </row>
     <row r="788">
       <c r="A788" t="n">
-        <v>-1</v>
+        <v>10.55126459751838</v>
       </c>
     </row>
     <row r="789">
       <c r="A789" t="n">
-        <v>4.19</v>
+        <v>16.91126459751838</v>
       </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
-        <v>49.48988322988048</v>
+        <v>10.54126459751837</v>
       </c>
     </row>
     <row r="791">
       <c r="A791" t="n">
-        <v>-1</v>
+        <v>-3.358735402481625</v>
       </c>
     </row>
     <row r="792">
       <c r="A792" t="n">
-        <v>3.07</v>
+        <v>7.084218454409738</v>
       </c>
     </row>
     <row r="793">
       <c r="A793" t="n">
-        <v>-1</v>
+        <v>9.694218454409738</v>
       </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
-        <v>-1</v>
+        <v>9.304218454409739</v>
       </c>
     </row>
     <row r="795">
       <c r="A795" t="n">
-        <v>-1</v>
+        <v>9.161264597518375</v>
       </c>
     </row>
     <row r="796">
       <c r="A796" t="n">
-        <v>-10.33191716698966</v>
+        <v>6.334218454409736</v>
       </c>
     </row>
     <row r="797">
       <c r="A797" t="n">
-        <v>-1</v>
+        <v>8.991264597518374</v>
       </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
-        <v>-1</v>
+        <v>-7.268735402481625</v>
       </c>
     </row>
     <row r="799">
       <c r="A799" t="n">
-        <v>-1</v>
+        <v>3.644218454409739</v>
       </c>
     </row>
     <row r="800">
       <c r="A800" t="n">
-        <v>-1</v>
+        <v>10.16126459751838</v>
       </c>
     </row>
     <row r="801">
       <c r="A801" t="n">
-        <v>14.77656632512642</v>
+        <v>0.3342184544097371</v>
       </c>
     </row>
     <row r="802">
       <c r="A802" t="n">
-        <v>2.25</v>
+        <v>-8.115781545590261</v>
       </c>
     </row>
     <row r="803">
       <c r="A803" t="n">
-        <v>3.14</v>
+        <v>-5.558735402481625</v>
       </c>
     </row>
     <row r="804">
       <c r="A804" t="n">
-        <v>-1</v>
+        <v>15.25126459751838</v>
       </c>
     </row>
     <row r="805">
       <c r="A805" t="n">
-        <v>3.07</v>
+        <v>8.904218454409738</v>
       </c>
     </row>
     <row r="806">
       <c r="A806" t="n">
-        <v>-1</v>
+        <v>6.831264597518374</v>
       </c>
     </row>
     <row r="807">
       <c r="A807" t="n">
-        <v>-1</v>
+        <v>3.374218454409738</v>
       </c>
     </row>
     <row r="808">
       <c r="A808" t="n">
-        <v>2.31</v>
+        <v>15.97126459751838</v>
       </c>
     </row>
     <row r="809">
       <c r="A809" t="n">
-        <v>3.37</v>
+        <v>4.764218454409737</v>
       </c>
     </row>
     <row r="810">
       <c r="A810" t="n">
-        <v>2.49</v>
+        <v>8.601264597518377</v>
       </c>
     </row>
     <row r="811">
       <c r="A811" t="n">
-        <v>-1</v>
+        <v>1.821264597518375</v>
       </c>
     </row>
     <row r="812">
       <c r="A812" t="n">
-        <v>-1</v>
+        <v>16.17126459751838</v>
       </c>
     </row>
     <row r="813">
       <c r="A813" t="n">
-        <v>3.37</v>
+        <v>8.001264597518373</v>
       </c>
     </row>
     <row r="814">
       <c r="A814" t="n">
-        <v>3.1</v>
+        <v>-4.715781545590262</v>
       </c>
     </row>
     <row r="815">
       <c r="A815" t="n">
-        <v>-1</v>
+        <v>14.63126459751838</v>
       </c>
     </row>
     <row r="816">
       <c r="A816" t="n">
-        <v>2.31</v>
+        <v>9.981264597518374</v>
       </c>
     </row>
     <row r="817">
       <c r="A817" t="n">
-        <v>-1</v>
+        <v>5.561264597518376</v>
       </c>
     </row>
     <row r="818">
       <c r="A818" t="n">
-        <v>-1</v>
+        <v>8.374218454409737</v>
       </c>
     </row>
     <row r="819">
       <c r="A819" t="n">
-        <v>3.14</v>
+        <v>14.67126459751838</v>
       </c>
     </row>
     <row r="820">
       <c r="A820" t="n">
-        <v>-1</v>
+        <v>1.234218454409739</v>
       </c>
     </row>
     <row r="821">
       <c r="A821" t="n">
-        <v>14.77656632512642</v>
+        <v>-9.858735402481624</v>
       </c>
     </row>
     <row r="822">
       <c r="A822" t="n">
-        <v>2.73</v>
+        <v>2.624218454409738</v>
       </c>
     </row>
     <row r="823">
       <c r="A823" t="n">
-        <v>-1</v>
+        <v>14.82421845440974</v>
       </c>
     </row>
     <row r="824">
       <c r="A824" t="n">
-        <v>2.83</v>
+        <v>17.29126459751837</v>
       </c>
     </row>
     <row r="825">
       <c r="A825" t="n">
-        <v>-1</v>
+        <v>10.02126459751838</v>
       </c>
     </row>
     <row r="826">
       <c r="A826" t="n">
-        <v>-1</v>
+        <v>-1.628735402481625</v>
       </c>
     </row>
     <row r="827">
       <c r="A827" t="n">
-        <v>3.15</v>
+        <v>5.071264597518375</v>
       </c>
     </row>
     <row r="828">
       <c r="A828" t="n">
-        <v>2.34</v>
+        <v>2.674218454409739</v>
       </c>
     </row>
     <row r="829">
       <c r="A829" t="n">
-        <v>-1</v>
+        <v>9.924218454409738</v>
       </c>
     </row>
     <row r="830">
       <c r="A830" t="n">
-        <v>3.48</v>
+        <v>3.944218454409737</v>
       </c>
     </row>
     <row r="831">
       <c r="A831" t="n">
-        <v>-1</v>
+        <v>17.56126459751838</v>
       </c>
     </row>
     <row r="832">
       <c r="A832" t="n">
-        <v>3.48</v>
+        <v>24.65126459751837</v>
       </c>
     </row>
     <row r="833">
       <c r="A833" t="n">
-        <v>-1</v>
+        <v>1.921264597518374</v>
       </c>
     </row>
     <row r="834">
       <c r="A834" t="n">
-        <v>3.48</v>
+        <v>3.424218454409738</v>
       </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
-        <v>2.55</v>
+        <v>2.051264597518374</v>
       </c>
     </row>
     <row r="836">
       <c r="A836" t="n">
-        <v>2.25</v>
+        <v>1.891264597518375</v>
       </c>
     </row>
     <row r="837">
       <c r="A837" t="n">
-        <v>3.48</v>
+        <v>2.801264597518374</v>
       </c>
     </row>
     <row r="838">
       <c r="A838" t="n">
-        <v>-1</v>
+        <v>1.674218454409738</v>
       </c>
     </row>
     <row r="839">
       <c r="A839" t="n">
-        <v>-1</v>
+        <v>-7.105781545590262</v>
       </c>
     </row>
     <row r="840">
       <c r="A840" t="n">
-        <v>2.55</v>
+        <v>4.414218454409738</v>
       </c>
     </row>
     <row r="841">
       <c r="A841" t="n">
-        <v>-1</v>
+        <v>2.184218454409738</v>
       </c>
     </row>
     <row r="842">
       <c r="A842" t="n">
-        <v>-1</v>
+        <v>5.194218454409738</v>
       </c>
     </row>
     <row r="843">
       <c r="A843" t="n">
-        <v>2.83</v>
+        <v>4.481264597518376</v>
       </c>
     </row>
     <row r="844">
       <c r="A844" t="n">
-        <v>-1</v>
+        <v>13.07126459751838</v>
       </c>
     </row>
     <row r="845">
       <c r="A845" t="n">
-        <v>2.31</v>
+        <v>17.64126459751838</v>
       </c>
     </row>
     <row r="846">
       <c r="A846" t="n">
-        <v>2.34</v>
+        <v>6.994218454409738</v>
       </c>
     </row>
     <row r="847">
       <c r="A847" t="n">
-        <v>14.77656632512642</v>
+        <v>6.161264597518374</v>
       </c>
     </row>
     <row r="848">
       <c r="A848" t="n">
-        <v>-1</v>
+        <v>6.304218454409738</v>
       </c>
     </row>
     <row r="849">
       <c r="A849" t="n">
-        <v>-1</v>
+        <v>-0.05578154559026194</v>
       </c>
     </row>
     <row r="850">
       <c r="A850" t="n">
-        <v>14.77656632512642</v>
+        <v>1.044218454409737</v>
       </c>
     </row>
     <row r="851">
       <c r="A851" t="n">
-        <v>3.07</v>
+        <v>-1.508735402481625</v>
       </c>
     </row>
     <row r="852">
       <c r="A852" t="n">
-        <v>-1</v>
+        <v>5.314218454409739</v>
       </c>
     </row>
     <row r="853">
       <c r="A853" t="n">
-        <v>3.15</v>
+        <v>5.831264597518373</v>
       </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
-        <v>-1</v>
+        <v>-5.105781545590262</v>
       </c>
     </row>
     <row r="855">
       <c r="A855" t="n">
-        <v>-1</v>
+        <v>7.821264597518373</v>
       </c>
     </row>
     <row r="856">
       <c r="A856" t="n">
-        <v>3.14</v>
+        <v>2.294218454409738</v>
       </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
-        <v>14.77656632512642</v>
+        <v>13.85126459751838</v>
       </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
-        <v>-1</v>
+        <v>2.051264597518375</v>
       </c>
     </row>
     <row r="859">
       <c r="A859" t="n">
-        <v>-1</v>
+        <v>3.974218454409739</v>
       </c>
     </row>
     <row r="860">
       <c r="A860" t="n">
-        <v>-1</v>
+        <v>13.12421845440974</v>
       </c>
     </row>
     <row r="861">
       <c r="A861" t="n">
-        <v>-1</v>
+        <v>13.49126459751838</v>
       </c>
     </row>
     <row r="862">
       <c r="A862" t="n">
-        <v>-1</v>
+        <v>8.901264597518376</v>
       </c>
     </row>
     <row r="863">
       <c r="A863" t="n">
-        <v>-1</v>
+        <v>5.164218454409738</v>
       </c>
     </row>
     <row r="864">
       <c r="A864" t="n">
-        <v>-1</v>
+        <v>9.231264597518376</v>
       </c>
     </row>
     <row r="865">
       <c r="A865" t="n">
-        <v>-1</v>
+        <v>6.024218454409738</v>
       </c>
     </row>
     <row r="866">
       <c r="A866" t="n">
-        <v>3.14</v>
+        <v>5.704218454409737</v>
       </c>
     </row>
     <row r="867">
       <c r="A867" t="n">
-        <v>3.48</v>
+        <v>13.66126459751838</v>
       </c>
     </row>
     <row r="868">
       <c r="A868" t="n">
-        <v>-1</v>
+        <v>-2.455781545590264</v>
       </c>
     </row>
     <row r="869">
       <c r="A869" t="n">
-        <v>-10.33191716698966</v>
+        <v>8.831264597518375</v>
       </c>
     </row>
     <row r="870">
       <c r="A870" t="n">
-        <v>14.77656632512642</v>
+        <v>8.93421845440974</v>
       </c>
     </row>
     <row r="871">
       <c r="A871" t="n">
-        <v>3.14</v>
+        <v>-9.385781545590262</v>
       </c>
     </row>
     <row r="872">
       <c r="A872" t="n">
-        <v>14.77656632512642</v>
+        <v>9.811264597518376</v>
       </c>
     </row>
     <row r="873">
       <c r="A873" t="n">
-        <v>2.73</v>
+        <v>27.44126459751838</v>
       </c>
     </row>
     <row r="874">
       <c r="A874" t="n">
-        <v>14.77656632512642</v>
+        <v>9.584218454409738</v>
       </c>
     </row>
     <row r="875">
       <c r="A875" t="n">
-        <v>-1</v>
+        <v>3.324218454409738</v>
       </c>
     </row>
     <row r="876">
       <c r="A876" t="n">
-        <v>-1</v>
+        <v>-1.975781545590262</v>
       </c>
     </row>
     <row r="877">
       <c r="A877" t="n">
-        <v>-1</v>
+        <v>4.421264597518375</v>
       </c>
     </row>
     <row r="878">
       <c r="A878" t="n">
-        <v>-1</v>
+        <v>5.394218454409737</v>
       </c>
     </row>
     <row r="879">
       <c r="A879" t="n">
-        <v>2.73</v>
+        <v>8.681264597518377</v>
       </c>
     </row>
     <row r="880">
       <c r="A880" t="n">
-        <v>-8.163848798412388</v>
+        <v>7.311264597518376</v>
       </c>
     </row>
     <row r="881">
       <c r="A881" t="n">
-        <v>-1</v>
+        <v>14.48421845440974</v>
       </c>
     </row>
     <row r="882">
       <c r="A882" t="n">
-        <v>2.25</v>
+        <v>5.854218454409737</v>
       </c>
     </row>
     <row r="883">
       <c r="A883" t="n">
-        <v>-1</v>
+        <v>-0.00578154559026256</v>
       </c>
     </row>
     <row r="884">
       <c r="A884" t="n">
-        <v>-1</v>
+        <v>1.301264597518374</v>
       </c>
     </row>
     <row r="885">
       <c r="A885" t="n">
-        <v>2.25</v>
+        <v>10.63421845440974</v>
       </c>
     </row>
     <row r="886">
       <c r="A886" t="n">
-        <v>3.37</v>
+        <v>0.9712645975183747</v>
       </c>
     </row>
     <row r="887">
       <c r="A887" t="n">
-        <v>3.48</v>
+        <v>8.75421845440974</v>
       </c>
     </row>
     <row r="888">
       <c r="A888" t="n">
-        <v>2.83</v>
+        <v>-2.705781545590263</v>
       </c>
     </row>
     <row r="889">
       <c r="A889" t="n">
-        <v>2.49</v>
+        <v>6.574218454409738</v>
       </c>
     </row>
     <row r="890">
       <c r="A890" t="n">
-        <v>2.73</v>
+        <v>11.64421845440974</v>
       </c>
     </row>
     <row r="891">
       <c r="A891" t="n">
-        <v>-1</v>
+        <v>7.581264597518375</v>
       </c>
     </row>
     <row r="892">
       <c r="A892" t="n">
-        <v>-1</v>
+        <v>3.801264597518375</v>
       </c>
     </row>
     <row r="893">
       <c r="A893" t="n">
-        <v>3.07</v>
+        <v>2.704218454409737</v>
       </c>
     </row>
     <row r="894">
       <c r="A894" t="n">
-        <v>49.48988322988048</v>
+        <v>4.964218454409736</v>
       </c>
     </row>
     <row r="895">
       <c r="A895" t="n">
-        <v>2.83</v>
+        <v>13.22126459751838</v>
       </c>
     </row>
     <row r="896">
       <c r="A896" t="n">
-        <v>14.77656632512642</v>
+        <v>-1.988735402481625</v>
       </c>
     </row>
     <row r="897">
       <c r="A897" t="n">
-        <v>-1</v>
+        <v>15.22126459751837</v>
       </c>
     </row>
     <row r="898">
       <c r="A898" t="n">
-        <v>3.15</v>
+        <v>-1.885781545590263</v>
       </c>
     </row>
     <row r="899">
       <c r="A899" t="n">
-        <v>2.34</v>
+        <v>1.004218454409737</v>
       </c>
     </row>
     <row r="900">
       <c r="A900" t="n">
-        <v>-1</v>
+        <v>7.491264597518375</v>
       </c>
     </row>
     <row r="901">
       <c r="A901" t="n">
-        <v>2.25</v>
+        <v>13.00421845440974</v>
       </c>
     </row>
     <row r="902">
       <c r="A902" t="n">
-        <v>-1</v>
+        <v>10.45126459751838</v>
       </c>
     </row>
     <row r="903">
       <c r="A903" t="n">
-        <v>-1</v>
+        <v>-2.325781545590263</v>
       </c>
     </row>
     <row r="904">
       <c r="A904" t="n">
-        <v>-8.163848798412388</v>
+        <v>17.00421845440974</v>
       </c>
     </row>
     <row r="905">
       <c r="A905" t="n">
-        <v>-1</v>
+        <v>11.10126459751838</v>
       </c>
     </row>
     <row r="906">
       <c r="A906" t="n">
-        <v>3.14</v>
+        <v>16.74126459751838</v>
       </c>
     </row>
     <row r="907">
       <c r="A907" t="n">
-        <v>14.77656632512642</v>
+        <v>1.001264597518374</v>
       </c>
     </row>
     <row r="908">
       <c r="A908" t="n">
-        <v>2.83</v>
+        <v>12.12126459751838</v>
       </c>
     </row>
     <row r="909">
       <c r="A909" t="n">
-        <v>-1</v>
+        <v>0.1142184544097373</v>
       </c>
     </row>
     <row r="910">
       <c r="A910" t="n">
-        <v>-10.33191716698966</v>
+        <v>9.701264597518374</v>
       </c>
     </row>
     <row r="911">
       <c r="A911" t="n">
-        <v>-1</v>
+        <v>27.71421845440974</v>
       </c>
     </row>
     <row r="912">
       <c r="A912" t="n">
-        <v>2.92</v>
+        <v>9.544218454409739</v>
       </c>
     </row>
     <row r="913">
       <c r="A913" t="n">
-        <v>3.48</v>
+        <v>8.964218454409741</v>
       </c>
     </row>
     <row r="914">
       <c r="A914" t="n">
-        <v>2.25</v>
+        <v>-2.248735402481626</v>
       </c>
     </row>
     <row r="915">
       <c r="A915" t="n">
-        <v>-1</v>
+        <v>16.96126459751838</v>
       </c>
     </row>
     <row r="916">
       <c r="A916" t="n">
-        <v>-1</v>
+        <v>-1.515781545590262</v>
       </c>
     </row>
     <row r="917">
       <c r="A917" t="n">
-        <v>-1</v>
+        <v>12.12421845440974</v>
       </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
-        <v>-1</v>
+        <v>9.141264597518376</v>
       </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
-        <v>2.34</v>
+        <v>9.00421845440974</v>
       </c>
     </row>
     <row r="920">
       <c r="A920" t="n">
-        <v>-1</v>
+        <v>0.7942184544097373</v>
       </c>
     </row>
     <row r="921">
       <c r="A921" t="n">
-        <v>-1</v>
+        <v>13.60421845440974</v>
       </c>
     </row>
     <row r="922">
       <c r="A922" t="n">
-        <v>-1</v>
+        <v>8.074218454409738</v>
       </c>
     </row>
     <row r="923">
       <c r="A923" t="n">
-        <v>2.21</v>
+        <v>7.454218454409737</v>
       </c>
     </row>
     <row r="924">
       <c r="A924" t="n">
-        <v>2.83</v>
+        <v>8.701264597518376</v>
       </c>
     </row>
     <row r="925">
       <c r="A925" t="n">
-        <v>2.73</v>
+        <v>11.75126459751838</v>
       </c>
     </row>
     <row r="926">
       <c r="A926" t="n">
-        <v>-1</v>
+        <v>3.254218454409736</v>
       </c>
     </row>
     <row r="927">
       <c r="A927" t="n">
-        <v>-1</v>
+        <v>1.041264597518373</v>
       </c>
     </row>
     <row r="928">
       <c r="A928" t="n">
-        <v>49.48988322988048</v>
+        <v>13.70126459751837</v>
       </c>
     </row>
     <row r="929">
       <c r="A929" t="n">
-        <v>3.14</v>
+        <v>5.494218454409738</v>
       </c>
     </row>
     <row r="930">
       <c r="A930" t="n">
-        <v>2.31</v>
+        <v>20.49126459751837</v>
       </c>
     </row>
     <row r="931">
       <c r="A931" t="n">
-        <v>49.48988322988048</v>
+        <v>7.84421845440974</v>
       </c>
     </row>
     <row r="932">
       <c r="A932" t="n">
-        <v>-1</v>
+        <v>8.801264597518376</v>
       </c>
     </row>
     <row r="933">
       <c r="A933" t="n">
-        <v>2.31</v>
+        <v>17.02126459751837</v>
       </c>
     </row>
     <row r="934">
       <c r="A934" t="n">
-        <v>2.31</v>
+        <v>8.334218454409738</v>
       </c>
     </row>
     <row r="935">
       <c r="A935" t="n">
-        <v>-1</v>
+        <v>-0.3987354024816261</v>
       </c>
     </row>
     <row r="936">
       <c r="A936" t="n">
-        <v>2.34</v>
+        <v>1.201264597518375</v>
       </c>
     </row>
     <row r="937">
       <c r="A937" t="n">
-        <v>-1</v>
+        <v>5.014218454409738</v>
       </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
-        <v>-1</v>
+        <v>19.99421845440974</v>
       </c>
     </row>
     <row r="939">
       <c r="A939" t="n">
-        <v>2.55</v>
+        <v>8.694218454409739</v>
       </c>
     </row>
     <row r="940">
       <c r="A940" t="n">
-        <v>-1</v>
+        <v>10.77421845440974</v>
       </c>
     </row>
     <row r="941">
       <c r="A941" t="n">
-        <v>-1</v>
+        <v>14.96126459751838</v>
       </c>
     </row>
     <row r="942">
       <c r="A942" t="n">
-        <v>-1</v>
+        <v>-1.435781545590262</v>
       </c>
     </row>
     <row r="943">
       <c r="A943" t="n">
-        <v>-1</v>
+        <v>2.314218454409738</v>
       </c>
     </row>
     <row r="944">
       <c r="A944" t="n">
-        <v>-1</v>
+        <v>8.924218454409738</v>
       </c>
     </row>
     <row r="945">
       <c r="A945" t="n">
-        <v>-1</v>
+        <v>12.41126459751838</v>
       </c>
     </row>
     <row r="946">
       <c r="A946" t="n">
-        <v>-1</v>
+        <v>13.67421845440974</v>
       </c>
     </row>
     <row r="947">
       <c r="A947" t="n">
-        <v>-1</v>
+        <v>10.33126459751838</v>
       </c>
     </row>
     <row r="948">
       <c r="A948" t="n">
-        <v>-1</v>
+        <v>11.30421845440974</v>
       </c>
     </row>
     <row r="949">
       <c r="A949" t="n">
-        <v>-1</v>
+        <v>6.374218454409737</v>
       </c>
     </row>
     <row r="950">
       <c r="A950" t="n">
-        <v>2.83</v>
+        <v>18.97421845440974</v>
       </c>
     </row>
     <row r="951">
       <c r="A951" t="n">
-        <v>4.19</v>
+        <v>10.84421845440974</v>
       </c>
     </row>
     <row r="952">
       <c r="A952" t="n">
-        <v>-1</v>
+        <v>23.72126459751838</v>
       </c>
     </row>
     <row r="953">
       <c r="A953" t="n">
-        <v>3.14</v>
+        <v>0.5142184544097383</v>
       </c>
     </row>
     <row r="954">
       <c r="A954" t="n">
-        <v>2.31</v>
+        <v>9.911264597518375</v>
       </c>
     </row>
     <row r="955">
       <c r="A955" t="n">
-        <v>14.77656632512642</v>
+        <v>10.67421845440974</v>
       </c>
     </row>
     <row r="956">
       <c r="A956" t="n">
-        <v>-1</v>
+        <v>11.27421845440974</v>
       </c>
     </row>
     <row r="957">
       <c r="A957" t="n">
-        <v>-1</v>
+        <v>11.10421845440974</v>
       </c>
     </row>
     <row r="958">
       <c r="A958" t="n">
-        <v>-1</v>
+        <v>13.41126459751838</v>
       </c>
     </row>
     <row r="959">
       <c r="A959" t="n">
-        <v>3.15</v>
+        <v>5.191264597518375</v>
       </c>
     </row>
     <row r="960">
       <c r="A960" t="n">
-        <v>-1</v>
+        <v>14.12126459751838</v>
       </c>
     </row>
     <row r="961">
       <c r="A961" t="n">
-        <v>-1</v>
+        <v>11.79421845440974</v>
       </c>
     </row>
     <row r="962">
       <c r="A962" t="n">
-        <v>49.48988322988048</v>
+        <v>14.87126459751838</v>
       </c>
     </row>
     <row r="963">
       <c r="A963" t="n">
-        <v>-10.33191716698966</v>
+        <v>-5.145781545590262</v>
       </c>
     </row>
     <row r="964">
       <c r="A964" t="n">
-        <v>2.31</v>
+        <v>7.364218454409738</v>
       </c>
     </row>
     <row r="965">
       <c r="A965" t="n">
-        <v>-1</v>
+        <v>-1.055781545590262</v>
       </c>
     </row>
     <row r="966">
       <c r="A966" t="n">
-        <v>-1</v>
+        <v>8.354218454409738</v>
       </c>
     </row>
     <row r="967">
       <c r="A967" t="n">
-        <v>14.77656632512642</v>
+        <v>9.791264597518374</v>
       </c>
     </row>
     <row r="968">
       <c r="A968" t="n">
-        <v>3.07</v>
+        <v>11.59126459751838</v>
       </c>
     </row>
     <row r="969">
       <c r="A969" t="n">
-        <v>-1</v>
+        <v>4.644218454409738</v>
       </c>
     </row>
     <row r="970">
       <c r="A970" t="n">
-        <v>2.25</v>
+        <v>1.264218454409737</v>
       </c>
     </row>
     <row r="971">
       <c r="A971" t="n">
-        <v>3.1</v>
+        <v>4.451264597518376</v>
       </c>
     </row>
     <row r="972">
       <c r="A972" t="n">
-        <v>-1</v>
+        <v>6.804218454409739</v>
       </c>
     </row>
     <row r="973">
       <c r="A973" t="n">
-        <v>-1</v>
+        <v>7.431264597518377</v>
       </c>
     </row>
     <row r="974">
       <c r="A974" t="n">
-        <v>-1</v>
+        <v>18.25421845440974</v>
       </c>
     </row>
     <row r="975">
       <c r="A975" t="n">
-        <v>-1</v>
+        <v>10.85421845440974</v>
       </c>
     </row>
     <row r="976">
       <c r="A976" t="n">
-        <v>14.77656632512642</v>
+        <v>-1.695781545590261</v>
       </c>
     </row>
     <row r="977">
       <c r="A977" t="n">
-        <v>-1</v>
+        <v>12.10421845440974</v>
       </c>
     </row>
     <row r="978">
       <c r="A978" t="n">
-        <v>2.49</v>
+        <v>9.371264597518374</v>
       </c>
     </row>
     <row r="979">
       <c r="A979" t="n">
-        <v>2.73</v>
+        <v>1.294218454409738</v>
       </c>
     </row>
     <row r="980">
       <c r="A980" t="n">
-        <v>2.31</v>
+        <v>19.10126459751837</v>
       </c>
     </row>
     <row r="981">
       <c r="A981" t="n">
-        <v>2.31</v>
+        <v>-1.315781545590262</v>
       </c>
     </row>
     <row r="982">
       <c r="A982" t="n">
-        <v>2.55</v>
+        <v>10.55421845440974</v>
       </c>
     </row>
     <row r="983">
       <c r="A983" t="n">
-        <v>2.21</v>
+        <v>10.36126459751837</v>
       </c>
     </row>
     <row r="984">
       <c r="A984" t="n">
-        <v>-1</v>
+        <v>2.781264597518375</v>
       </c>
     </row>
     <row r="985">
       <c r="A985" t="n">
-        <v>2.49</v>
+        <v>13.34421845440974</v>
       </c>
     </row>
     <row r="986">
       <c r="A986" t="n">
-        <v>-1</v>
+        <v>10.52421845440974</v>
       </c>
     </row>
     <row r="987">
       <c r="A987" t="n">
-        <v>-1</v>
+        <v>18.31126459751837</v>
       </c>
     </row>
     <row r="988">
       <c r="A988" t="n">
-        <v>-1</v>
+        <v>13.07421845440974</v>
       </c>
     </row>
     <row r="989">
       <c r="A989" t="n">
-        <v>-1</v>
+        <v>6.521264597518375</v>
       </c>
     </row>
     <row r="990">
       <c r="A990" t="n">
-        <v>2.73</v>
+        <v>15.04126459751838</v>
       </c>
     </row>
     <row r="991">
       <c r="A991" t="n">
-        <v>-10.33191716698966</v>
+        <v>2.354218454409738</v>
       </c>
     </row>
     <row r="992">
       <c r="A992" t="n">
-        <v>14.77656632512642</v>
+        <v>6.664218454409738</v>
       </c>
     </row>
     <row r="993">
       <c r="A993" t="n">
-        <v>3.14</v>
+        <v>9.964218454409739</v>
       </c>
     </row>
     <row r="994">
       <c r="A994" t="n">
-        <v>-1</v>
+        <v>2.424218454409738</v>
       </c>
     </row>
     <row r="995">
       <c r="A995" t="n">
-        <v>-1</v>
+        <v>12.87421845440974</v>
       </c>
     </row>
     <row r="996">
       <c r="A996" t="n">
-        <v>-1</v>
+        <v>0.9742184544097374</v>
       </c>
     </row>
     <row r="997">
       <c r="A997" t="n">
-        <v>-1</v>
+        <v>10.82421845440974</v>
       </c>
     </row>
     <row r="998">
       <c r="A998" t="n">
-        <v>3.07</v>
+        <v>13.45421845440974</v>
       </c>
     </row>
     <row r="999">
       <c r="A999" t="n">
-        <v>-1</v>
+        <v>3.411264597518375</v>
       </c>
     </row>
     <row r="1000">
       <c r="A1000" t="n">
-        <v>-1</v>
+        <v>14.30126459751838</v>
       </c>
     </row>
     <row r="1001">
       <c r="A1001" t="n">
-        <v>2.31</v>
+        <v>8.884218454409737</v>
       </c>
     </row>
   </sheetData>
@@ -7799,19 +8018,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2.081634393478015</v>
+        <v>7.899144941252034</v>
       </c>
       <c r="B2" t="n">
-        <v>-1</v>
+        <v>8.227741525964056</v>
       </c>
       <c r="C2" t="n">
-        <v>49.48988322988048</v>
+        <v>28.45126459751838</v>
       </c>
       <c r="D2" t="n">
-        <v>-10.33191716698966</v>
+        <v>-10.82873540248162</v>
       </c>
       <c r="E2" t="n">
-        <v>0.479</v>
+        <v>0.623</v>
       </c>
     </row>
   </sheetData>
